--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1242967.139744607</v>
+        <v>1236784.742943713</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19944319.45468912</v>
+        <v>19944319.45468911</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11151855.36870075</v>
+        <v>11151855.36870074</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>311.658832034964</v>
+        <v>215.91508842427</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>286.728895554706</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>299.4390357366541</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>311.6588320349639</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>311.6588320349639</v>
       </c>
       <c r="Y11" t="n">
-        <v>311.658832034964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4.579096760507621</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.39412853517615</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>65.32537253016099</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U12" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1514,7 +1514,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>20.98325683555723</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.5715921347735</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.0550062350497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>311.6588320349641</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.5090992563963</v>
+        <v>159.5321966911454</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>56.38289173312509</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>89.41132580341285</v>
       </c>
       <c r="D15" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>29.84286178486649</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H15" t="n">
-        <v>76.61503396604265</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.39412853517615</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T15" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6340563521181</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.5889204806361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>282.5332698218218</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>93.91958217710338</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>199.7797372595603</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,73 +1846,73 @@
         <v>311.6588320349641</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>274.5090992563963</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>311.6588320349641</v>
       </c>
-      <c r="D17" t="n">
+      <c r="Y17" t="n">
         <v>311.6588320349641</v>
-      </c>
-      <c r="E17" t="n">
-        <v>274.5090992563963</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H18" t="n">
         <v>76.61503396604265</v>
@@ -1976,22 +1976,22 @@
         <v>112.8113912098066</v>
       </c>
       <c r="T18" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>149.2460657119451</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>50.42766843152211</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.264305071432893</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>80.51050339515963</v>
+        <v>80.51050339515962</v>
       </c>
       <c r="S19" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>229.3563631822438</v>
       </c>
       <c r="U19" t="n">
-        <v>171.351475002535</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,73 +2080,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>157.2842666917253</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>117.2248325646711</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>311.6588320349642</v>
       </c>
-      <c r="E20" t="n">
-        <v>311.6588320349642</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>56.38289173312508</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>218.1262075232713</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>311.6588320349642</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>25.86577052107369</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>14.09302882620504</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>207.8889464367184</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6340563521181</v>
       </c>
       <c r="H22" t="n">
-        <v>2.848408247864754</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>103.5715921347735</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>80.51050339515962</v>
       </c>
       <c r="S22" t="n">
-        <v>184.4506040058318</v>
+        <v>88.83821105363776</v>
       </c>
       <c r="T22" t="n">
-        <v>229.3563631822438</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>299.4390357366541</v>
+        <v>121.0228600350131</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>74.61183460077798</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.1170609539285</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V23" t="n">
         <v>311.6588320349642</v>
       </c>
       <c r="W23" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>47.55256700741167</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T24" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>69.1406976153874</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
@@ -2465,7 +2465,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>67.6653805794341</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.51050339515962</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5332698218218</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>95.07842812497854</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.1170609539285</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.028010302419</v>
       </c>
       <c r="V26" t="n">
-        <v>3.79802747034196</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>21.4810889539773</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="Y26" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>76.61503396604265</v>
       </c>
       <c r="I27" t="n">
-        <v>10.39412853517614</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>112.8113912098066</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U27" t="n">
-        <v>197.6274876802667</v>
+        <v>73.42218562058028</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>13.56262778969093</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.5889204806361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>282.5332698218218</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.9691525090852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>133.2426563333232</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>299.4390357366541</v>
       </c>
       <c r="I29" t="n">
-        <v>3.798027470342016</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>212.1170609539285</v>
@@ -2851,10 +2851,10 @@
         <v>253.028010302419</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="W29" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.39412853517614</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>170.7068636923703</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V30" t="n">
-        <v>107.6124004753539</v>
+        <v>110.0034767730652</v>
       </c>
       <c r="W30" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
         <v>177.5210747552478</v>
@@ -2952,13 +2952,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>80.03424955817745</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.51050339515962</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>94.92870839353877</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5332698218218</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>76.85976460019806</v>
+        <v>311.6588320349643</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>311.6588320349643</v>
       </c>
       <c r="H32" t="n">
-        <v>299.4390357366541</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.38289173312508</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T32" t="n">
-        <v>212.1170609539285</v>
+        <v>157.2842666917254</v>
       </c>
       <c r="U32" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>311.6588320349643</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>109.4175463368303</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>58.65758683746314</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H33" t="n">
-        <v>76.61503396604265</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>10.39412853517614</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T33" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>145.5889204806361</v>
       </c>
       <c r="I34" t="n">
-        <v>103.5715921347735</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>80.51050339515962</v>
       </c>
       <c r="S34" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>229.3563631822438</v>
       </c>
       <c r="U34" t="n">
-        <v>234.2680931677973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>118.0534102324916</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>311.6588320349642</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4431460396359</v>
+        <v>6.009146569342796</v>
       </c>
       <c r="I35" t="n">
         <v>56.38289173312508</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>212.1170609539285</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H36" t="n">
-        <v>72.13958359303943</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>10.39412853517614</v>
@@ -3410,7 +3410,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>141.8125655793515</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>55.37575610845891</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.6340563521181</v>
       </c>
       <c r="H37" t="n">
-        <v>145.5889204806361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.51050339515962</v>
+        <v>36.90283528287448</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.3563631822438</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5332698218218</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,10 +3514,10 @@
         <v>311.6588320349642</v>
       </c>
       <c r="F38" t="n">
-        <v>286.7288955547065</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>311.6588320349642</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>299.4390357366541</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>286.7288955547065</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>311.6588320349642</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>48.50842012147425</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>76.61503396604265</v>
       </c>
       <c r="I39" t="n">
-        <v>10.39412853517614</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>41.53940488541228</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -3647,7 +3647,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>165.6340563521181</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.5889204806361</v>
+        <v>122.1698525164115</v>
       </c>
       <c r="I40" t="n">
         <v>103.5715921347735</v>
@@ -3711,19 +3711,19 @@
         <v>80.51050339515962</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5332698218218</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>141.1050718126714</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>274.5090992563964</v>
       </c>
       <c r="D41" t="n">
-        <v>62.39203830246788</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.1170609539285</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>23.41861640979299</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.39412853517614</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>207.8889464367184</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>74.7297878747529</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>28.20071157284479</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.6340563521181</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.5889204806361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>103.5715921347735</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>80.51050339515962</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>282.5332698218218</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>93.19342515155826</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,10 +3991,10 @@
         <v>311.6588320349641</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5090992563964</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.48108895397742</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>311.6588320349641</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>75.81856001500098</v>
+        <v>112.901583809686</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.39412853517614</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T45" t="n">
         <v>170.7068636923703</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
@@ -4124,7 +4124,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>116.5374619210492</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6340563521181</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.5889204806361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>103.5715921347735</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>80.51050339515962</v>
       </c>
       <c r="S46" t="n">
-        <v>19.48184166231128</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T46" t="n">
         <v>229.3563631822438</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5332698218218</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>617.0215260490195</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="C11" t="n">
-        <v>617.0215260490195</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="D11" t="n">
-        <v>617.0215260490195</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="E11" t="n">
-        <v>617.0215260490195</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="F11" t="n">
-        <v>617.0215260490195</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="G11" t="n">
-        <v>327.3963790240639</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="H11" t="n">
-        <v>24.93270656279712</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="I11" t="n">
-        <v>24.93270656279712</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="J11" t="n">
         <v>84.03350630819216</v>
@@ -5053,10 +5053,10 @@
         <v>595.4490449214283</v>
       </c>
       <c r="N11" t="n">
-        <v>816.9986872872123</v>
+        <v>816.9986872872121</v>
       </c>
       <c r="O11" t="n">
-        <v>1017.53381235417</v>
+        <v>1017.533812354169</v>
       </c>
       <c r="P11" t="n">
         <v>1166.260251496406</v>
@@ -5068,25 +5068,25 @@
         <v>1246.635328139856</v>
       </c>
       <c r="S11" t="n">
-        <v>1246.635328139856</v>
+        <v>1128.22640635736</v>
       </c>
       <c r="T11" t="n">
-        <v>1246.635328139856</v>
+        <v>1128.22640635736</v>
       </c>
       <c r="U11" t="n">
-        <v>1246.635328139856</v>
+        <v>872.6425575670373</v>
       </c>
       <c r="V11" t="n">
-        <v>1246.635328139856</v>
+        <v>557.8356565216193</v>
       </c>
       <c r="W11" t="n">
-        <v>1246.635328139856</v>
+        <v>557.8356565216193</v>
       </c>
       <c r="X11" t="n">
-        <v>1246.635328139856</v>
+        <v>243.0287554762012</v>
       </c>
       <c r="Y11" t="n">
-        <v>931.8284270944376</v>
+        <v>243.0287554762012</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.43182629529828</v>
+        <v>290.4363538319166</v>
       </c>
       <c r="C12" t="n">
-        <v>35.43182629529828</v>
+        <v>290.4363538319166</v>
       </c>
       <c r="D12" t="n">
-        <v>35.43182629529828</v>
+        <v>285.8110035687776</v>
       </c>
       <c r="E12" t="n">
-        <v>35.43182629529828</v>
+        <v>149.3645126796653</v>
       </c>
       <c r="F12" t="n">
-        <v>35.43182629529828</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="G12" t="n">
-        <v>35.43182629529828</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="H12" t="n">
-        <v>35.43182629529828</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="I12" t="n">
-        <v>24.93270656279712</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="J12" t="n">
-        <v>242.6361324678254</v>
+        <v>47.90113748809806</v>
       </c>
       <c r="K12" t="n">
-        <v>332.6934753482184</v>
+        <v>171.6076257450682</v>
       </c>
       <c r="L12" t="n">
-        <v>483.8963383681523</v>
+        <v>322.8104887650022</v>
       </c>
       <c r="M12" t="n">
-        <v>672.9249120460804</v>
+        <v>511.8390624429303</v>
       </c>
       <c r="N12" t="n">
-        <v>876.3221287924233</v>
+        <v>715.2362791892732</v>
       </c>
       <c r="O12" t="n">
-        <v>1047.947978364459</v>
+        <v>886.8621287613089</v>
       </c>
       <c r="P12" t="n">
-        <v>1173.126360390062</v>
+        <v>1195.404372475923</v>
       </c>
       <c r="Q12" t="n">
         <v>1246.635328139856</v>
@@ -5147,25 +5147,25 @@
         <v>1246.635328139856</v>
       </c>
       <c r="S12" t="n">
-        <v>1132.68442792793</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T12" t="n">
-        <v>1066.699203149989</v>
+        <v>1074.204152693017</v>
       </c>
       <c r="U12" t="n">
-        <v>856.7103683654254</v>
+        <v>1074.204152693017</v>
       </c>
       <c r="V12" t="n">
-        <v>634.1703667364925</v>
+        <v>851.6641510640839</v>
       </c>
       <c r="W12" t="n">
-        <v>404.0531208697794</v>
+        <v>621.5469051973707</v>
       </c>
       <c r="X12" t="n">
-        <v>214.746043219791</v>
+        <v>621.5469051973707</v>
       </c>
       <c r="Y12" t="n">
-        <v>35.43182629529828</v>
+        <v>442.232688272878</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>350.7709375942932</v>
+        <v>461.9376105589897</v>
       </c>
       <c r="C13" t="n">
-        <v>180.5658196602824</v>
+        <v>461.9376105589897</v>
       </c>
       <c r="D13" t="n">
-        <v>24.93270656279712</v>
+        <v>306.3044974615044</v>
       </c>
       <c r="E13" t="n">
-        <v>24.93270656279712</v>
+        <v>150.7456853207069</v>
       </c>
       <c r="F13" t="n">
-        <v>24.93270656279712</v>
+        <v>150.7456853207069</v>
       </c>
       <c r="G13" t="n">
-        <v>24.93270656279712</v>
+        <v>150.7456853207069</v>
       </c>
       <c r="H13" t="n">
-        <v>24.93270656279712</v>
+        <v>129.5504763959016</v>
       </c>
       <c r="I13" t="n">
-        <v>24.93270656279712</v>
+        <v>24.93270656279711</v>
       </c>
       <c r="J13" t="n">
-        <v>24.93270656279712</v>
+        <v>60.77439242645065</v>
       </c>
       <c r="K13" t="n">
-        <v>49.73898015478989</v>
+        <v>250.4357387611248</v>
       </c>
       <c r="L13" t="n">
-        <v>351.8471674186736</v>
+        <v>552.5439260250085</v>
       </c>
       <c r="M13" t="n">
-        <v>660.3894111332879</v>
+        <v>608.6263249772645</v>
       </c>
       <c r="N13" t="n">
-        <v>968.9316548479022</v>
+        <v>668.4826016716272</v>
       </c>
       <c r="O13" t="n">
-        <v>1223.015946264274</v>
+        <v>933.375364887213</v>
       </c>
       <c r="P13" t="n">
-        <v>1246.635328139856</v>
+        <v>1165.498883145</v>
       </c>
       <c r="Q13" t="n">
         <v>1246.635328139856</v>
@@ -5226,25 +5226,25 @@
         <v>1165.311587336664</v>
       </c>
       <c r="S13" t="n">
-        <v>978.9978459166319</v>
+        <v>978.9978459166317</v>
       </c>
       <c r="T13" t="n">
-        <v>747.3247517931534</v>
+        <v>747.3247517931532</v>
       </c>
       <c r="U13" t="n">
-        <v>461.9376105589899</v>
+        <v>461.9376105589897</v>
       </c>
       <c r="V13" t="n">
-        <v>461.9376105589899</v>
+        <v>461.9376105589897</v>
       </c>
       <c r="W13" t="n">
-        <v>461.9376105589899</v>
+        <v>461.9376105589897</v>
       </c>
       <c r="X13" t="n">
-        <v>461.9376105589899</v>
+        <v>461.9376105589897</v>
       </c>
       <c r="Y13" t="n">
-        <v>350.7709375942932</v>
+        <v>461.9376105589897</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1246.635328139856</v>
+        <v>557.8356565216201</v>
       </c>
       <c r="C14" t="n">
-        <v>1246.635328139856</v>
+        <v>557.8356565216201</v>
       </c>
       <c r="D14" t="n">
-        <v>931.828427094438</v>
+        <v>557.8356565216201</v>
       </c>
       <c r="E14" t="n">
-        <v>617.0215260490197</v>
+        <v>243.0287554762017</v>
       </c>
       <c r="F14" t="n">
-        <v>617.0215260490197</v>
+        <v>243.0287554762017</v>
       </c>
       <c r="G14" t="n">
-        <v>302.2146250036014</v>
+        <v>243.0287554762017</v>
       </c>
       <c r="H14" t="n">
-        <v>24.93270656279713</v>
+        <v>81.88512245484269</v>
       </c>
       <c r="I14" t="n">
-        <v>24.93270656279713</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="J14" t="n">
-        <v>84.03350630819216</v>
+        <v>84.03350630819273</v>
       </c>
       <c r="K14" t="n">
-        <v>205.5903216845598</v>
+        <v>205.5903216845604</v>
       </c>
       <c r="L14" t="n">
-        <v>380.3784451554879</v>
+        <v>380.3784451554886</v>
       </c>
       <c r="M14" t="n">
-        <v>595.4490449214283</v>
+        <v>595.449044921429</v>
       </c>
       <c r="N14" t="n">
-        <v>816.9986872872128</v>
+        <v>816.9986872872132</v>
       </c>
       <c r="O14" t="n">
-        <v>1017.53381235417</v>
+        <v>1017.533812354171</v>
       </c>
       <c r="P14" t="n">
         <v>1166.260251496407</v>
       </c>
       <c r="Q14" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R14" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="S14" t="n">
-        <v>1246.635328139856</v>
+        <v>1128.226406357361</v>
       </c>
       <c r="T14" t="n">
-        <v>1246.635328139856</v>
+        <v>1128.226406357361</v>
       </c>
       <c r="U14" t="n">
-        <v>1246.635328139856</v>
+        <v>872.6425575670385</v>
       </c>
       <c r="V14" t="n">
-        <v>1246.635328139856</v>
+        <v>872.6425575670385</v>
       </c>
       <c r="W14" t="n">
-        <v>1246.635328139856</v>
+        <v>872.6425575670385</v>
       </c>
       <c r="X14" t="n">
-        <v>1246.635328139856</v>
+        <v>872.6425575670385</v>
       </c>
       <c r="Y14" t="n">
-        <v>1246.635328139856</v>
+        <v>557.8356565216201</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>273.0540217050393</v>
+        <v>500.7129635077919</v>
       </c>
       <c r="C15" t="n">
-        <v>273.0540217050393</v>
+        <v>410.3984929992941</v>
       </c>
       <c r="D15" t="n">
-        <v>142.9650543265196</v>
+        <v>280.3095256207744</v>
       </c>
       <c r="E15" t="n">
-        <v>142.9650543265196</v>
+        <v>143.8630347316621</v>
       </c>
       <c r="F15" t="n">
-        <v>112.8207494933212</v>
+        <v>143.8630347316621</v>
       </c>
       <c r="G15" t="n">
-        <v>112.8207494933212</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H15" t="n">
-        <v>35.43182629529829</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I15" t="n">
-        <v>24.93270656279713</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="J15" t="n">
-        <v>242.6361324678255</v>
+        <v>47.90113748809809</v>
       </c>
       <c r="K15" t="n">
-        <v>332.6934753482184</v>
+        <v>137.9584803684911</v>
       </c>
       <c r="L15" t="n">
-        <v>483.8963383681524</v>
+        <v>289.161343388425</v>
       </c>
       <c r="M15" t="n">
-        <v>672.9249120460805</v>
+        <v>478.1899170663531</v>
       </c>
       <c r="N15" t="n">
-        <v>876.3221287924234</v>
+        <v>681.587133812696</v>
       </c>
       <c r="O15" t="n">
-        <v>1070.225990450321</v>
+        <v>853.2129833847317</v>
       </c>
       <c r="P15" t="n">
-        <v>1195.404372475924</v>
+        <v>978.3913654103343</v>
       </c>
       <c r="Q15" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R15" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="S15" t="n">
-        <v>1246.635328139856</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="T15" t="n">
-        <v>1074.204152693017</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="U15" t="n">
-        <v>864.2153179084534</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="V15" t="n">
-        <v>641.6753162795204</v>
+        <v>910.1444262989978</v>
       </c>
       <c r="W15" t="n">
-        <v>641.6753162795204</v>
+        <v>680.0271804322847</v>
       </c>
       <c r="X15" t="n">
-        <v>452.3682386295321</v>
+        <v>680.0271804322847</v>
       </c>
       <c r="Y15" t="n">
-        <v>273.0540217050393</v>
+        <v>500.7129635077919</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.93270656279713</v>
+        <v>494.8581619690029</v>
       </c>
       <c r="C16" t="n">
-        <v>24.93270656279713</v>
+        <v>494.8581619690029</v>
       </c>
       <c r="D16" t="n">
-        <v>24.93270656279713</v>
+        <v>494.8581619690029</v>
       </c>
       <c r="E16" t="n">
-        <v>24.93270656279713</v>
+        <v>339.2993498282054</v>
       </c>
       <c r="F16" t="n">
-        <v>24.93270656279713</v>
+        <v>339.2993498282054</v>
       </c>
       <c r="G16" t="n">
-        <v>24.93270656279713</v>
+        <v>171.9922221998033</v>
       </c>
       <c r="H16" t="n">
-        <v>24.93270656279713</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I16" t="n">
-        <v>24.93270656279713</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="J16" t="n">
-        <v>60.77439242645066</v>
+        <v>60.77439242645067</v>
       </c>
       <c r="K16" t="n">
         <v>250.4357387611248</v>
@@ -5445,43 +5445,43 @@
         <v>552.5439260250085</v>
       </c>
       <c r="M16" t="n">
-        <v>788.1382232896752</v>
+        <v>861.0861697396231</v>
       </c>
       <c r="N16" t="n">
-        <v>847.9944999840379</v>
+        <v>1169.628413454237</v>
       </c>
       <c r="O16" t="n">
-        <v>1141.879501269419</v>
+        <v>1223.015946264275</v>
       </c>
       <c r="P16" t="n">
-        <v>1165.498883145</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="Q16" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R16" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="S16" t="n">
-        <v>1246.635328139856</v>
+        <v>1060.321586719825</v>
       </c>
       <c r="T16" t="n">
-        <v>1246.635328139856</v>
+        <v>1060.321586719825</v>
       </c>
       <c r="U16" t="n">
-        <v>961.2481869056928</v>
+        <v>774.9344454856612</v>
       </c>
       <c r="V16" t="n">
-        <v>695.2688417265171</v>
+        <v>680.0661806603042</v>
       </c>
       <c r="W16" t="n">
-        <v>411.9384396576947</v>
+        <v>680.0661806603042</v>
       </c>
       <c r="X16" t="n">
-        <v>210.1407252540984</v>
+        <v>680.0661806603042</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.1407252540984</v>
+        <v>680.0661806603042</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>931.828427094438</v>
+        <v>302.2146250036014</v>
       </c>
       <c r="C17" t="n">
-        <v>617.0215260490197</v>
+        <v>302.2146250036014</v>
       </c>
       <c r="D17" t="n">
         <v>302.2146250036014</v>
       </c>
       <c r="E17" t="n">
-        <v>24.93270656279713</v>
+        <v>302.2146250036014</v>
       </c>
       <c r="F17" t="n">
         <v>24.93270656279713</v>
@@ -5515,19 +5515,19 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J17" t="n">
-        <v>84.03350630819227</v>
+        <v>84.03350630819239</v>
       </c>
       <c r="K17" t="n">
         <v>205.59032168456</v>
       </c>
       <c r="L17" t="n">
-        <v>380.3784451554882</v>
+        <v>380.378445155488</v>
       </c>
       <c r="M17" t="n">
-        <v>595.4490449214286</v>
+        <v>595.4490449214284</v>
       </c>
       <c r="N17" t="n">
-        <v>816.9986872872128</v>
+        <v>816.9986872872126</v>
       </c>
       <c r="O17" t="n">
         <v>1017.53381235417</v>
@@ -5557,10 +5557,10 @@
         <v>1246.635328139856</v>
       </c>
       <c r="X17" t="n">
-        <v>1246.635328139856</v>
+        <v>931.828427094438</v>
       </c>
       <c r="Y17" t="n">
-        <v>1246.635328139856</v>
+        <v>617.0215260490197</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>356.8424032562079</v>
+        <v>351.3409253082046</v>
       </c>
       <c r="C18" t="n">
-        <v>356.8424032562079</v>
+        <v>351.3409253082046</v>
       </c>
       <c r="D18" t="n">
-        <v>226.7534358776882</v>
+        <v>221.251957929685</v>
       </c>
       <c r="E18" t="n">
-        <v>226.7534358776882</v>
+        <v>221.251957929685</v>
       </c>
       <c r="F18" t="n">
-        <v>102.32162976082</v>
+        <v>221.251957929685</v>
       </c>
       <c r="G18" t="n">
         <v>102.32162976082</v>
@@ -5594,52 +5594,52 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J18" t="n">
-        <v>47.90113748809807</v>
+        <v>47.9011374880981</v>
       </c>
       <c r="K18" t="n">
-        <v>354.9714874340805</v>
+        <v>137.9584803684911</v>
       </c>
       <c r="L18" t="n">
-        <v>506.1743504540145</v>
+        <v>289.1613433884251</v>
       </c>
       <c r="M18" t="n">
-        <v>695.2029241319426</v>
+        <v>478.1899170663533</v>
       </c>
       <c r="N18" t="n">
-        <v>898.6001408782855</v>
+        <v>681.5871338126963</v>
       </c>
       <c r="O18" t="n">
-        <v>1070.225990450321</v>
+        <v>853.2129833847321</v>
       </c>
       <c r="P18" t="n">
-        <v>1195.404372475924</v>
+        <v>978.3913654103346</v>
       </c>
       <c r="Q18" t="n">
-        <v>1246.635328139856</v>
+        <v>1201.344515078394</v>
       </c>
       <c r="R18" t="n">
         <v>1246.635328139856</v>
       </c>
       <c r="S18" t="n">
-        <v>1132.68442792793</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="T18" t="n">
-        <v>960.2532524810915</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="U18" t="n">
-        <v>809.499650751854</v>
+        <v>922.6955931433664</v>
       </c>
       <c r="V18" t="n">
-        <v>586.9596491229211</v>
+        <v>871.7585543236471</v>
       </c>
       <c r="W18" t="n">
-        <v>356.8424032562079</v>
+        <v>871.7585543236471</v>
       </c>
       <c r="X18" t="n">
-        <v>356.8424032562079</v>
+        <v>682.4514766736588</v>
       </c>
       <c r="Y18" t="n">
-        <v>356.8424032562079</v>
+        <v>503.137259749166</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.93270656279713</v>
+        <v>514.3501523048677</v>
       </c>
       <c r="C19" t="n">
-        <v>24.93270656279713</v>
+        <v>344.1450343708569</v>
       </c>
       <c r="D19" t="n">
-        <v>24.93270656279713</v>
+        <v>337.8174534906217</v>
       </c>
       <c r="E19" t="n">
-        <v>24.93270656279713</v>
+        <v>182.2586413498242</v>
       </c>
       <c r="F19" t="n">
         <v>24.93270656279713</v>
@@ -5673,22 +5673,22 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J19" t="n">
-        <v>60.77439242645066</v>
+        <v>60.77439242645067</v>
       </c>
       <c r="K19" t="n">
-        <v>250.4357387611248</v>
+        <v>250.4357387611249</v>
       </c>
       <c r="L19" t="n">
-        <v>552.5439260250085</v>
+        <v>552.5439260250087</v>
       </c>
       <c r="M19" t="n">
-        <v>608.6263249772645</v>
+        <v>861.0861697396231</v>
       </c>
       <c r="N19" t="n">
-        <v>668.4826016716272</v>
+        <v>920.9424464339858</v>
       </c>
       <c r="O19" t="n">
-        <v>933.3753648872137</v>
+        <v>963.0258981838978</v>
       </c>
       <c r="P19" t="n">
         <v>1165.498883145</v>
@@ -5700,25 +5700,25 @@
         <v>1165.311587336665</v>
       </c>
       <c r="S19" t="n">
-        <v>978.9978459166324</v>
+        <v>1165.311587336665</v>
       </c>
       <c r="T19" t="n">
-        <v>747.3247517931538</v>
+        <v>933.6384932131859</v>
       </c>
       <c r="U19" t="n">
-        <v>574.2424538107953</v>
+        <v>933.6384932131859</v>
       </c>
       <c r="V19" t="n">
-        <v>308.2631086316195</v>
+        <v>933.6384932131859</v>
       </c>
       <c r="W19" t="n">
-        <v>24.93270656279713</v>
+        <v>933.6384932131859</v>
       </c>
       <c r="X19" t="n">
-        <v>24.93270656279713</v>
+        <v>699.558170996169</v>
       </c>
       <c r="Y19" t="n">
-        <v>24.93270656279713</v>
+        <v>699.558170996169</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>711.4989245456794</v>
+        <v>183.8057032211055</v>
       </c>
       <c r="C20" t="n">
-        <v>711.4989245456794</v>
+        <v>183.8057032211055</v>
       </c>
       <c r="D20" t="n">
-        <v>396.692023500261</v>
+        <v>183.8057032211055</v>
       </c>
       <c r="E20" t="n">
-        <v>81.88512245484267</v>
+        <v>183.8057032211055</v>
       </c>
       <c r="F20" t="n">
-        <v>81.88512245484267</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="G20" t="n">
-        <v>81.88512245484267</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H20" t="n">
-        <v>81.88512245484267</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I20" t="n">
         <v>24.93270656279714</v>
       </c>
       <c r="J20" t="n">
-        <v>84.03350630819239</v>
+        <v>84.03350630819227</v>
       </c>
       <c r="K20" t="n">
         <v>205.59032168456</v>
@@ -5779,25 +5779,25 @@
         <v>1246.635328139857</v>
       </c>
       <c r="S20" t="n">
-        <v>1246.635328139857</v>
+        <v>1128.226406357361</v>
       </c>
       <c r="T20" t="n">
-        <v>1246.635328139857</v>
+        <v>1128.226406357361</v>
       </c>
       <c r="U20" t="n">
-        <v>1246.635328139857</v>
+        <v>1128.226406357361</v>
       </c>
       <c r="V20" t="n">
-        <v>1246.635328139857</v>
+        <v>813.4195053119423</v>
       </c>
       <c r="W20" t="n">
-        <v>1246.635328139857</v>
+        <v>813.4195053119423</v>
       </c>
       <c r="X20" t="n">
-        <v>1026.305825591098</v>
+        <v>813.4195053119423</v>
       </c>
       <c r="Y20" t="n">
-        <v>711.4989245456794</v>
+        <v>498.6126042665239</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>560.9573400465397</v>
+        <v>293.6888627109174</v>
       </c>
       <c r="C21" t="n">
-        <v>534.8302991161622</v>
+        <v>293.6888627109174</v>
       </c>
       <c r="D21" t="n">
-        <v>404.7413317376426</v>
+        <v>163.5998953323977</v>
       </c>
       <c r="E21" t="n">
-        <v>268.2948408485303</v>
+        <v>149.3645126796653</v>
       </c>
       <c r="F21" t="n">
-        <v>143.8630347316621</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="G21" t="n">
         <v>24.93270656279714</v>
@@ -5831,22 +5831,22 @@
         <v>24.93270656279714</v>
       </c>
       <c r="J21" t="n">
-        <v>47.90113748809812</v>
+        <v>81.55028286467554</v>
       </c>
       <c r="K21" t="n">
-        <v>137.9584803684911</v>
+        <v>171.6076257450686</v>
       </c>
       <c r="L21" t="n">
-        <v>369.2579563114357</v>
+        <v>322.8104887650026</v>
       </c>
       <c r="M21" t="n">
-        <v>558.2865299893639</v>
+        <v>511.8390624429308</v>
       </c>
       <c r="N21" t="n">
-        <v>761.6837467357069</v>
+        <v>715.2362791892738</v>
       </c>
       <c r="O21" t="n">
-        <v>1070.225990450321</v>
+        <v>886.8621287613095</v>
       </c>
       <c r="P21" t="n">
         <v>1195.404372475924</v>
@@ -5858,25 +5858,25 @@
         <v>1246.635328139857</v>
       </c>
       <c r="S21" t="n">
-        <v>1132.684427927931</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T21" t="n">
-        <v>960.2532524810922</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="U21" t="n">
-        <v>750.2644176965281</v>
+        <v>1036.646493355293</v>
       </c>
       <c r="V21" t="n">
-        <v>750.2644176965281</v>
+        <v>814.1064917263598</v>
       </c>
       <c r="W21" t="n">
-        <v>750.2644176965281</v>
+        <v>814.1064917263598</v>
       </c>
       <c r="X21" t="n">
-        <v>560.9573400465397</v>
+        <v>624.7994140763715</v>
       </c>
       <c r="Y21" t="n">
-        <v>560.9573400465397</v>
+        <v>445.4851971518787</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.0150045451562</v>
+        <v>624.3886567453417</v>
       </c>
       <c r="C22" t="n">
-        <v>27.80988661114537</v>
+        <v>454.1835388113308</v>
       </c>
       <c r="D22" t="n">
-        <v>27.80988661114537</v>
+        <v>454.1835388113308</v>
       </c>
       <c r="E22" t="n">
-        <v>27.80988661114537</v>
+        <v>454.1835388113308</v>
       </c>
       <c r="F22" t="n">
-        <v>27.80988661114537</v>
+        <v>296.8576040243038</v>
       </c>
       <c r="G22" t="n">
-        <v>27.80988661114537</v>
+        <v>129.5504763959016</v>
       </c>
       <c r="H22" t="n">
-        <v>24.93270656279714</v>
+        <v>129.5504763959016</v>
       </c>
       <c r="I22" t="n">
         <v>24.93270656279714</v>
@@ -5913,22 +5913,22 @@
         <v>60.77439242645069</v>
       </c>
       <c r="K22" t="n">
-        <v>223.6834627318555</v>
+        <v>250.4357387611249</v>
       </c>
       <c r="L22" t="n">
-        <v>274.8657209349627</v>
+        <v>552.5439260250087</v>
       </c>
       <c r="M22" t="n">
-        <v>330.9481198872187</v>
+        <v>660.7705319023265</v>
       </c>
       <c r="N22" t="n">
-        <v>639.4903636018332</v>
+        <v>720.6268085966892</v>
       </c>
       <c r="O22" t="n">
-        <v>933.3753648872141</v>
+        <v>1014.51180988207</v>
       </c>
       <c r="P22" t="n">
-        <v>1165.498883145001</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="Q22" t="n">
         <v>1246.635328139857</v>
@@ -5937,25 +5937,25 @@
         <v>1165.311587336665</v>
       </c>
       <c r="S22" t="n">
-        <v>978.997845916633</v>
+        <v>1075.576020615819</v>
       </c>
       <c r="T22" t="n">
-        <v>747.3247517931543</v>
+        <v>1075.576020615819</v>
       </c>
       <c r="U22" t="n">
-        <v>747.3247517931543</v>
+        <v>1075.576020615819</v>
       </c>
       <c r="V22" t="n">
-        <v>481.3454066139785</v>
+        <v>809.596675436643</v>
       </c>
       <c r="W22" t="n">
-        <v>198.0150045451562</v>
+        <v>809.596675436643</v>
       </c>
       <c r="X22" t="n">
-        <v>198.0150045451562</v>
+        <v>809.596675436643</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.0150045451562</v>
+        <v>809.596675436643</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>327.3963790240639</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="C23" t="n">
-        <v>327.3963790240639</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="D23" t="n">
-        <v>327.3963790240639</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="E23" t="n">
-        <v>327.3963790240639</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="F23" t="n">
-        <v>327.3963790240639</v>
+        <v>147.178019729477</v>
       </c>
       <c r="G23" t="n">
-        <v>327.3963790240639</v>
+        <v>147.178019729477</v>
       </c>
       <c r="H23" t="n">
         <v>24.93270656279714</v>
@@ -5989,19 +5989,19 @@
         <v>24.93270656279714</v>
       </c>
       <c r="J23" t="n">
-        <v>84.0335063081924</v>
+        <v>84.03350630819227</v>
       </c>
       <c r="K23" t="n">
         <v>205.59032168456</v>
       </c>
       <c r="L23" t="n">
-        <v>380.3784451554882</v>
+        <v>380.3784451554881</v>
       </c>
       <c r="M23" t="n">
         <v>595.4490449214286</v>
       </c>
       <c r="N23" t="n">
-        <v>816.9986872872128</v>
+        <v>816.998687287213</v>
       </c>
       <c r="O23" t="n">
         <v>1017.53381235417</v>
@@ -6010,31 +6010,31 @@
         <v>1166.260251496407</v>
       </c>
       <c r="Q23" t="n">
-        <v>1246.635328139856</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R23" t="n">
         <v>1246.635328139857</v>
       </c>
       <c r="S23" t="n">
-        <v>1171.269838644121</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T23" t="n">
-        <v>957.0101811149007</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="U23" t="n">
-        <v>957.0101811149007</v>
+        <v>776.7918218203138</v>
       </c>
       <c r="V23" t="n">
-        <v>642.2032800694823</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="W23" t="n">
-        <v>327.3963790240639</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="X23" t="n">
-        <v>327.3963790240639</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="Y23" t="n">
-        <v>327.3963790240639</v>
+        <v>461.9849207748954</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>280.4434931064222</v>
+        <v>102.32162976082</v>
       </c>
       <c r="C24" t="n">
-        <v>280.4434931064222</v>
+        <v>102.32162976082</v>
       </c>
       <c r="D24" t="n">
-        <v>150.3545257279025</v>
+        <v>102.32162976082</v>
       </c>
       <c r="E24" t="n">
         <v>102.32162976082</v>
@@ -6068,52 +6068,52 @@
         <v>24.93270656279714</v>
       </c>
       <c r="J24" t="n">
-        <v>47.90113748809812</v>
+        <v>242.6361324678255</v>
       </c>
       <c r="K24" t="n">
-        <v>137.9584803684911</v>
+        <v>354.9714874340804</v>
       </c>
       <c r="L24" t="n">
-        <v>289.1613433884252</v>
+        <v>506.1743504540144</v>
       </c>
       <c r="M24" t="n">
-        <v>478.1899170663534</v>
+        <v>695.2029241319426</v>
       </c>
       <c r="N24" t="n">
-        <v>681.5871338126964</v>
+        <v>898.6001408782856</v>
       </c>
       <c r="O24" t="n">
-        <v>853.2129833847321</v>
+        <v>1070.225990450321</v>
       </c>
       <c r="P24" t="n">
-        <v>1150.113559414462</v>
+        <v>1195.404372475924</v>
       </c>
       <c r="Q24" t="n">
-        <v>1201.344515078394</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R24" t="n">
         <v>1246.635328139857</v>
       </c>
       <c r="S24" t="n">
-        <v>1246.635328139857</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="T24" t="n">
-        <v>1074.204152693018</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="U24" t="n">
-        <v>1074.204152693018</v>
+        <v>922.6955931433669</v>
       </c>
       <c r="V24" t="n">
-        <v>851.664151064085</v>
+        <v>852.8565046429756</v>
       </c>
       <c r="W24" t="n">
-        <v>621.5469051973719</v>
+        <v>622.7392587762624</v>
       </c>
       <c r="X24" t="n">
-        <v>432.2398275473835</v>
+        <v>433.4321811262741</v>
       </c>
       <c r="Y24" t="n">
-        <v>432.2398275473835</v>
+        <v>254.1179642017814</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>430.7938213973657</v>
+        <v>347.7986463319968</v>
       </c>
       <c r="C25" t="n">
-        <v>260.5887034633549</v>
+        <v>347.7986463319968</v>
       </c>
       <c r="D25" t="n">
-        <v>192.2398341911993</v>
+        <v>347.7986463319968</v>
       </c>
       <c r="E25" t="n">
         <v>192.2398341911993</v>
@@ -6153,46 +6153,46 @@
         <v>250.4357387611249</v>
       </c>
       <c r="L25" t="n">
-        <v>552.5439260250087</v>
+        <v>301.617996964232</v>
       </c>
       <c r="M25" t="n">
-        <v>608.6263249772646</v>
+        <v>610.1602406788465</v>
       </c>
       <c r="N25" t="n">
-        <v>917.1685686918792</v>
+        <v>918.7024843934611</v>
       </c>
       <c r="O25" t="n">
-        <v>1141.879501269419</v>
+        <v>1212.587485678842</v>
       </c>
       <c r="P25" t="n">
-        <v>1165.498883145001</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="Q25" t="n">
         <v>1246.635328139857</v>
       </c>
       <c r="R25" t="n">
-        <v>1165.311587336665</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="S25" t="n">
-        <v>1165.311587336665</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T25" t="n">
-        <v>1165.311587336665</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="U25" t="n">
-        <v>1165.311587336665</v>
+        <v>961.2481869056933</v>
       </c>
       <c r="V25" t="n">
-        <v>899.3322421574893</v>
+        <v>865.2093706178362</v>
       </c>
       <c r="W25" t="n">
-        <v>616.001840088667</v>
+        <v>581.8789685490137</v>
       </c>
       <c r="X25" t="n">
-        <v>616.001840088667</v>
+        <v>347.7986463319968</v>
       </c>
       <c r="Y25" t="n">
-        <v>616.001840088667</v>
+        <v>347.7986463319968</v>
       </c>
     </row>
     <row r="26">
@@ -6205,13 +6205,13 @@
         <v>339.7396076082155</v>
       </c>
       <c r="C26" t="n">
-        <v>339.7396076082155</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="D26" t="n">
-        <v>339.7396076082155</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="E26" t="n">
-        <v>339.7396076082155</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="F26" t="n">
         <v>24.93270656279714</v>
@@ -6226,10 +6226,10 @@
         <v>24.93270656279714</v>
       </c>
       <c r="J26" t="n">
-        <v>84.03350630819239</v>
+        <v>84.03350630819256</v>
       </c>
       <c r="K26" t="n">
-        <v>205.59032168456</v>
+        <v>205.5903216845602</v>
       </c>
       <c r="L26" t="n">
         <v>380.3784451554884</v>
@@ -6238,10 +6238,10 @@
         <v>595.4490449214288</v>
       </c>
       <c r="N26" t="n">
-        <v>816.9986872872131</v>
+        <v>816.998687287213</v>
       </c>
       <c r="O26" t="n">
-        <v>1017.533812354171</v>
+        <v>1017.53381235417</v>
       </c>
       <c r="P26" t="n">
         <v>1166.260251496407</v>
@@ -6253,22 +6253,22 @@
         <v>1246.635328139857</v>
       </c>
       <c r="S26" t="n">
-        <v>1128.226406357361</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T26" t="n">
-        <v>913.96674882814</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="U26" t="n">
-        <v>658.3829000378178</v>
+        <v>991.0514793495345</v>
       </c>
       <c r="V26" t="n">
-        <v>654.546508653634</v>
+        <v>676.2445783041161</v>
       </c>
       <c r="W26" t="n">
         <v>654.546508653634</v>
       </c>
       <c r="X26" t="n">
-        <v>654.546508653634</v>
+        <v>339.7396076082155</v>
       </c>
       <c r="Y26" t="n">
         <v>339.7396076082155</v>
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>361.8400450407058</v>
+        <v>102.32162976082</v>
       </c>
       <c r="C27" t="n">
-        <v>361.8400450407058</v>
+        <v>102.32162976082</v>
       </c>
       <c r="D27" t="n">
-        <v>231.7510776621862</v>
+        <v>102.32162976082</v>
       </c>
       <c r="E27" t="n">
-        <v>231.7510776621862</v>
+        <v>102.32162976082</v>
       </c>
       <c r="F27" t="n">
-        <v>231.7510776621862</v>
+        <v>102.32162976082</v>
       </c>
       <c r="G27" t="n">
-        <v>112.8207494933212</v>
+        <v>102.32162976082</v>
       </c>
       <c r="H27" t="n">
-        <v>35.43182629529829</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I27" t="n">
         <v>24.93270656279714</v>
       </c>
       <c r="J27" t="n">
-        <v>219.623331492225</v>
+        <v>47.90113748809812</v>
       </c>
       <c r="K27" t="n">
-        <v>309.6806743726181</v>
+        <v>137.9584803684911</v>
       </c>
       <c r="L27" t="n">
-        <v>460.8835373925521</v>
+        <v>289.1613433884252</v>
       </c>
       <c r="M27" t="n">
-        <v>649.9121110704803</v>
+        <v>478.1899170663534</v>
       </c>
       <c r="N27" t="n">
-        <v>853.3093278168233</v>
+        <v>681.5871338126964</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.935177388859</v>
+        <v>853.2129833847321</v>
       </c>
       <c r="P27" t="n">
         <v>1150.113559414462</v>
@@ -6335,22 +6335,22 @@
         <v>1132.684427927931</v>
       </c>
       <c r="T27" t="n">
-        <v>1132.684427927931</v>
+        <v>960.2532524810922</v>
       </c>
       <c r="U27" t="n">
-        <v>933.0607029983687</v>
+        <v>886.0894286219202</v>
       </c>
       <c r="V27" t="n">
-        <v>933.0607029983687</v>
+        <v>663.5494269929873</v>
       </c>
       <c r="W27" t="n">
-        <v>702.9434571316556</v>
+        <v>433.4321811262741</v>
       </c>
       <c r="X27" t="n">
-        <v>513.6363794816672</v>
+        <v>433.4321811262741</v>
       </c>
       <c r="Y27" t="n">
-        <v>513.6363794816672</v>
+        <v>254.1179642017814</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>327.6253352972885</v>
+        <v>195.958265379815</v>
       </c>
       <c r="C28" t="n">
-        <v>327.6253352972885</v>
+        <v>195.958265379815</v>
       </c>
       <c r="D28" t="n">
-        <v>171.9922221998033</v>
+        <v>195.958265379815</v>
       </c>
       <c r="E28" t="n">
-        <v>171.9922221998033</v>
+        <v>182.2586413498242</v>
       </c>
       <c r="F28" t="n">
-        <v>171.9922221998033</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="G28" t="n">
-        <v>171.9922221998033</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H28" t="n">
         <v>24.93270656279714</v>
@@ -6387,22 +6387,22 @@
         <v>24.93270656279714</v>
       </c>
       <c r="K28" t="n">
-        <v>49.73898015478994</v>
+        <v>214.5940528974713</v>
       </c>
       <c r="L28" t="n">
-        <v>100.9212383578971</v>
+        <v>312.0464575496653</v>
       </c>
       <c r="M28" t="n">
-        <v>409.4634820725116</v>
+        <v>620.5887012642798</v>
       </c>
       <c r="N28" t="n">
-        <v>718.0057257871262</v>
+        <v>929.1309449788944</v>
       </c>
       <c r="O28" t="n">
-        <v>1011.890727072507</v>
+        <v>1223.015946264275</v>
       </c>
       <c r="P28" t="n">
-        <v>1244.014245330294</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="Q28" t="n">
         <v>1246.635328139857</v>
@@ -6420,16 +6420,16 @@
         <v>461.9376105589908</v>
       </c>
       <c r="V28" t="n">
-        <v>461.9376105589908</v>
+        <v>195.958265379815</v>
       </c>
       <c r="W28" t="n">
-        <v>461.9376105589908</v>
+        <v>195.958265379815</v>
       </c>
       <c r="X28" t="n">
-        <v>461.9376105589908</v>
+        <v>195.958265379815</v>
       </c>
       <c r="Y28" t="n">
-        <v>327.6253352972885</v>
+        <v>195.958265379815</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28.76909794698099</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="C29" t="n">
-        <v>28.76909794698099</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="D29" t="n">
-        <v>28.76909794698099</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="E29" t="n">
-        <v>28.76909794698099</v>
+        <v>327.3963790240639</v>
       </c>
       <c r="F29" t="n">
-        <v>28.76909794698099</v>
+        <v>327.3963790240639</v>
       </c>
       <c r="G29" t="n">
-        <v>28.76909794698099</v>
+        <v>327.3963790240639</v>
       </c>
       <c r="H29" t="n">
-        <v>28.76909794698099</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I29" t="n">
         <v>24.93270656279714</v>
       </c>
       <c r="J29" t="n">
-        <v>84.03350630819227</v>
+        <v>84.0335063081924</v>
       </c>
       <c r="K29" t="n">
         <v>205.59032168456</v>
       </c>
       <c r="L29" t="n">
-        <v>380.3784451554881</v>
+        <v>380.3784451554882</v>
       </c>
       <c r="M29" t="n">
         <v>595.4490449214286</v>
       </c>
       <c r="N29" t="n">
-        <v>816.998687287213</v>
+        <v>816.9986872872128</v>
       </c>
       <c r="O29" t="n">
         <v>1017.53381235417</v>
@@ -6484,31 +6484,31 @@
         <v>1166.260251496407</v>
       </c>
       <c r="Q29" t="n">
-        <v>1246.635328139857</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R29" t="n">
         <v>1246.635328139857</v>
       </c>
       <c r="S29" t="n">
-        <v>1128.226406357361</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T29" t="n">
-        <v>913.96674882814</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="U29" t="n">
-        <v>658.3829000378178</v>
+        <v>776.7918218203138</v>
       </c>
       <c r="V29" t="n">
-        <v>658.3829000378178</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="W29" t="n">
-        <v>343.5759989923994</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="X29" t="n">
-        <v>343.5759989923994</v>
+        <v>461.9849207748954</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.5759989923994</v>
+        <v>461.9849207748954</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>442.1223952703369</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="C30" t="n">
-        <v>291.4681648304291</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="D30" t="n">
-        <v>161.3791974519094</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="E30" t="n">
-        <v>24.93270656279714</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="F30" t="n">
-        <v>24.93270656279714</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="G30" t="n">
-        <v>24.93270656279714</v>
+        <v>35.43182629529829</v>
       </c>
       <c r="H30" t="n">
-        <v>24.93270656279714</v>
+        <v>35.43182629529829</v>
       </c>
       <c r="I30" t="n">
         <v>24.93270656279714</v>
       </c>
       <c r="J30" t="n">
-        <v>47.90113748809812</v>
+        <v>242.6361324678255</v>
       </c>
       <c r="K30" t="n">
-        <v>137.9584803684911</v>
+        <v>354.9714874340804</v>
       </c>
       <c r="L30" t="n">
-        <v>289.1613433884252</v>
+        <v>506.1743504540144</v>
       </c>
       <c r="M30" t="n">
-        <v>478.1899170663534</v>
+        <v>695.2029241319426</v>
       </c>
       <c r="N30" t="n">
-        <v>681.5871338126964</v>
+        <v>898.6001408782856</v>
       </c>
       <c r="O30" t="n">
-        <v>853.2129833847321</v>
+        <v>1070.225990450321</v>
       </c>
       <c r="P30" t="n">
-        <v>978.3913654103346</v>
+        <v>1195.404372475924</v>
       </c>
       <c r="Q30" t="n">
         <v>1246.635328139857</v>
@@ -6569,25 +6569,25 @@
         <v>1246.635328139857</v>
       </c>
       <c r="S30" t="n">
-        <v>1132.684427927931</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T30" t="n">
-        <v>960.2532524810922</v>
+        <v>1074.204152693018</v>
       </c>
       <c r="U30" t="n">
-        <v>960.2532524810922</v>
+        <v>864.2153179084538</v>
       </c>
       <c r="V30" t="n">
-        <v>851.5538580615428</v>
+        <v>753.1006949053576</v>
       </c>
       <c r="W30" t="n">
-        <v>621.4366121948296</v>
+        <v>522.9834490386445</v>
       </c>
       <c r="X30" t="n">
-        <v>621.4366121948296</v>
+        <v>333.6763713886561</v>
       </c>
       <c r="Y30" t="n">
-        <v>442.1223952703369</v>
+        <v>154.3621544641633</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>275.9805008181993</v>
+        <v>180.4915187035946</v>
       </c>
       <c r="C31" t="n">
-        <v>105.7753828841885</v>
+        <v>180.4915187035946</v>
       </c>
       <c r="D31" t="n">
-        <v>105.7753828841885</v>
+        <v>180.4915187035946</v>
       </c>
       <c r="E31" t="n">
-        <v>105.7753828841885</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="F31" t="n">
-        <v>105.7753828841885</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="G31" t="n">
-        <v>105.7753828841885</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H31" t="n">
-        <v>105.7753828841885</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I31" t="n">
         <v>24.93270656279714</v>
       </c>
       <c r="J31" t="n">
-        <v>24.93270656279714</v>
+        <v>60.77439242645069</v>
       </c>
       <c r="K31" t="n">
-        <v>49.73898015478994</v>
+        <v>250.4357387611249</v>
       </c>
       <c r="L31" t="n">
-        <v>103.5423211674602</v>
+        <v>552.5439260250087</v>
       </c>
       <c r="M31" t="n">
-        <v>412.0845648820747</v>
+        <v>861.0861697396232</v>
       </c>
       <c r="N31" t="n">
-        <v>720.6268085966892</v>
+        <v>1169.628413454238</v>
       </c>
       <c r="O31" t="n">
-        <v>1014.51180988207</v>
+        <v>1223.015946264275</v>
       </c>
       <c r="P31" t="n">
         <v>1246.635328139857</v>
@@ -6645,28 +6645,28 @@
         <v>1246.635328139857</v>
       </c>
       <c r="R31" t="n">
-        <v>1246.635328139857</v>
+        <v>1165.311587336665</v>
       </c>
       <c r="S31" t="n">
-        <v>1246.635328139857</v>
+        <v>978.997845916633</v>
       </c>
       <c r="T31" t="n">
-        <v>1246.635328139857</v>
+        <v>883.1102616807352</v>
       </c>
       <c r="U31" t="n">
-        <v>961.2481869056933</v>
+        <v>883.1102616807352</v>
       </c>
       <c r="V31" t="n">
-        <v>695.2688417265175</v>
+        <v>883.1102616807352</v>
       </c>
       <c r="W31" t="n">
-        <v>695.2688417265175</v>
+        <v>599.7798596119128</v>
       </c>
       <c r="X31" t="n">
-        <v>461.1885195095006</v>
+        <v>365.6995373948959</v>
       </c>
       <c r="Y31" t="n">
-        <v>461.1885195095006</v>
+        <v>365.6995373948959</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>699.1556959615278</v>
+        <v>339.7396076082156</v>
       </c>
       <c r="C32" t="n">
-        <v>699.1556959615278</v>
+        <v>339.7396076082156</v>
       </c>
       <c r="D32" t="n">
-        <v>699.1556959615278</v>
+        <v>339.7396076082156</v>
       </c>
       <c r="E32" t="n">
-        <v>699.1556959615278</v>
+        <v>339.7396076082156</v>
       </c>
       <c r="F32" t="n">
-        <v>384.3487949161095</v>
+        <v>339.7396076082156</v>
       </c>
       <c r="G32" t="n">
-        <v>384.3487949161095</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H32" t="n">
-        <v>81.88512245484267</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I32" t="n">
         <v>24.93270656279714</v>
       </c>
       <c r="J32" t="n">
-        <v>84.03350630819239</v>
+        <v>84.03350630819273</v>
       </c>
       <c r="K32" t="n">
-        <v>205.59032168456</v>
+        <v>205.5903216845604</v>
       </c>
       <c r="L32" t="n">
-        <v>380.3784451554884</v>
+        <v>380.3784451554886</v>
       </c>
       <c r="M32" t="n">
-        <v>595.4490449214288</v>
+        <v>595.4490449214292</v>
       </c>
       <c r="N32" t="n">
-        <v>816.9986872872131</v>
+        <v>816.9986872872134</v>
       </c>
       <c r="O32" t="n">
         <v>1017.533812354171</v>
       </c>
       <c r="P32" t="n">
-        <v>1166.260251496407</v>
+        <v>1166.260251496408</v>
       </c>
       <c r="Q32" t="n">
         <v>1246.635328139857</v>
@@ -6727,25 +6727,25 @@
         <v>1246.635328139857</v>
       </c>
       <c r="S32" t="n">
-        <v>1246.635328139857</v>
+        <v>1128.226406357361</v>
       </c>
       <c r="T32" t="n">
-        <v>1032.375670610636</v>
+        <v>969.3534096990527</v>
       </c>
       <c r="U32" t="n">
-        <v>776.7918218203138</v>
+        <v>969.3534096990527</v>
       </c>
       <c r="V32" t="n">
-        <v>776.7918218203138</v>
+        <v>969.3534096990527</v>
       </c>
       <c r="W32" t="n">
-        <v>776.7918218203138</v>
+        <v>969.3534096990527</v>
       </c>
       <c r="X32" t="n">
-        <v>776.7918218203138</v>
+        <v>654.5465086536342</v>
       </c>
       <c r="Y32" t="n">
-        <v>776.7918218203138</v>
+        <v>654.5465086536342</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>489.8789818385595</v>
+        <v>500.7129635077926</v>
       </c>
       <c r="C33" t="n">
-        <v>379.3562077609531</v>
+        <v>350.0587330678848</v>
       </c>
       <c r="D33" t="n">
-        <v>249.2672403824334</v>
+        <v>350.0587330678848</v>
       </c>
       <c r="E33" t="n">
-        <v>112.8207494933212</v>
+        <v>213.6122421787725</v>
       </c>
       <c r="F33" t="n">
-        <v>112.8207494933212</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="G33" t="n">
-        <v>112.8207494933212</v>
+        <v>35.4318262952983</v>
       </c>
       <c r="H33" t="n">
-        <v>35.43182629529829</v>
+        <v>35.4318262952983</v>
       </c>
       <c r="I33" t="n">
         <v>24.93270656279714</v>
@@ -6788,43 +6788,43 @@
         <v>289.1613433884252</v>
       </c>
       <c r="M33" t="n">
-        <v>597.7035871030397</v>
+        <v>478.1899170663534</v>
       </c>
       <c r="N33" t="n">
-        <v>801.1008038493827</v>
+        <v>681.5871338126964</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.935177388859</v>
+        <v>853.2129833847321</v>
       </c>
       <c r="P33" t="n">
-        <v>1150.113559414462</v>
+        <v>978.3913654103346</v>
       </c>
       <c r="Q33" t="n">
-        <v>1201.344515078394</v>
+        <v>1201.344515078395</v>
       </c>
       <c r="R33" t="n">
         <v>1246.635328139857</v>
       </c>
       <c r="S33" t="n">
-        <v>1246.635328139857</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="T33" t="n">
-        <v>1074.204152693018</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="U33" t="n">
-        <v>864.2153179084538</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="V33" t="n">
-        <v>641.6753162795209</v>
+        <v>910.1444262989985</v>
       </c>
       <c r="W33" t="n">
-        <v>641.6753162795209</v>
+        <v>680.0271804322854</v>
       </c>
       <c r="X33" t="n">
-        <v>641.6753162795209</v>
+        <v>680.0271804322854</v>
       </c>
       <c r="Y33" t="n">
-        <v>641.6753162795209</v>
+        <v>500.7129635077926</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>276.6099920329078</v>
+        <v>171.9922221998033</v>
       </c>
       <c r="C34" t="n">
-        <v>276.6099920329078</v>
+        <v>171.9922221998033</v>
       </c>
       <c r="D34" t="n">
-        <v>276.6099920329078</v>
+        <v>171.9922221998033</v>
       </c>
       <c r="E34" t="n">
-        <v>276.6099920329078</v>
+        <v>171.9922221998033</v>
       </c>
       <c r="F34" t="n">
-        <v>276.6099920329078</v>
+        <v>171.9922221998033</v>
       </c>
       <c r="G34" t="n">
-        <v>276.6099920329078</v>
+        <v>171.9922221998033</v>
       </c>
       <c r="H34" t="n">
-        <v>129.5504763959016</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I34" t="n">
         <v>24.93270656279714</v>
       </c>
       <c r="J34" t="n">
-        <v>60.77439242645069</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="K34" t="n">
-        <v>85.58066601844349</v>
+        <v>214.5940528974713</v>
       </c>
       <c r="L34" t="n">
-        <v>387.6888532823272</v>
+        <v>516.7022401613551</v>
       </c>
       <c r="M34" t="n">
-        <v>539.4522562694239</v>
+        <v>825.2444838759698</v>
       </c>
       <c r="N34" t="n">
-        <v>847.9944999840384</v>
+        <v>885.1007605703325</v>
       </c>
       <c r="O34" t="n">
-        <v>1141.879501269419</v>
+        <v>1014.511809882071</v>
       </c>
       <c r="P34" t="n">
-        <v>1165.498883145001</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="Q34" t="n">
         <v>1246.635328139857</v>
       </c>
       <c r="R34" t="n">
-        <v>1165.311587336665</v>
+        <v>1165.311587336666</v>
       </c>
       <c r="S34" t="n">
-        <v>978.997845916633</v>
+        <v>1165.311587336666</v>
       </c>
       <c r="T34" t="n">
-        <v>747.3247517931543</v>
+        <v>933.6384932131868</v>
       </c>
       <c r="U34" t="n">
-        <v>510.6903142499247</v>
+        <v>933.6384932131868</v>
       </c>
       <c r="V34" t="n">
-        <v>510.6903142499247</v>
+        <v>814.3926242914781</v>
       </c>
       <c r="W34" t="n">
-        <v>510.6903142499247</v>
+        <v>814.3926242914781</v>
       </c>
       <c r="X34" t="n">
-        <v>276.6099920329078</v>
+        <v>580.3123020744612</v>
       </c>
       <c r="Y34" t="n">
-        <v>276.6099920329078</v>
+        <v>357.2002408911046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>913.96674882814</v>
+        <v>402.7618685197992</v>
       </c>
       <c r="C35" t="n">
-        <v>913.96674882814</v>
+        <v>402.7618685197992</v>
       </c>
       <c r="D35" t="n">
-        <v>913.96674882814</v>
+        <v>402.7618685197992</v>
       </c>
       <c r="E35" t="n">
-        <v>913.96674882814</v>
+        <v>402.7618685197992</v>
       </c>
       <c r="F35" t="n">
-        <v>599.1598477827216</v>
+        <v>402.7618685197992</v>
       </c>
       <c r="G35" t="n">
-        <v>284.3529467373032</v>
+        <v>87.95496747438085</v>
       </c>
       <c r="H35" t="n">
         <v>81.88512245484267</v>
@@ -6964,25 +6964,25 @@
         <v>1246.635328139857</v>
       </c>
       <c r="S35" t="n">
-        <v>1128.226406357361</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T35" t="n">
-        <v>913.96674882814</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="U35" t="n">
-        <v>913.96674882814</v>
+        <v>1032.375670610636</v>
       </c>
       <c r="V35" t="n">
-        <v>913.96674882814</v>
+        <v>717.5687695652176</v>
       </c>
       <c r="W35" t="n">
-        <v>913.96674882814</v>
+        <v>717.5687695652176</v>
       </c>
       <c r="X35" t="n">
-        <v>913.96674882814</v>
+        <v>717.5687695652176</v>
       </c>
       <c r="Y35" t="n">
-        <v>913.96674882814</v>
+        <v>402.7618685197992</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>108.3000925508937</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="C36" t="n">
-        <v>108.3000925508937</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="D36" t="n">
-        <v>108.3000925508937</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="E36" t="n">
-        <v>108.3000925508937</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="F36" t="n">
-        <v>108.3000925508937</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="G36" t="n">
-        <v>108.3000925508937</v>
+        <v>35.43182629529829</v>
       </c>
       <c r="H36" t="n">
         <v>35.43182629529829</v>
@@ -7016,28 +7016,28 @@
         <v>24.93270656279714</v>
       </c>
       <c r="J36" t="n">
-        <v>47.90113748809812</v>
+        <v>242.6361324678255</v>
       </c>
       <c r="K36" t="n">
-        <v>137.9584803684911</v>
+        <v>354.9714874340804</v>
       </c>
       <c r="L36" t="n">
-        <v>289.1613433884252</v>
+        <v>506.1743504540144</v>
       </c>
       <c r="M36" t="n">
-        <v>478.1899170663534</v>
+        <v>695.2029241319426</v>
       </c>
       <c r="N36" t="n">
-        <v>681.5871338126964</v>
+        <v>898.6001408782856</v>
       </c>
       <c r="O36" t="n">
-        <v>853.2129833847321</v>
+        <v>1070.225990450321</v>
       </c>
       <c r="P36" t="n">
-        <v>978.3913654103346</v>
+        <v>1195.404372475924</v>
       </c>
       <c r="Q36" t="n">
-        <v>1201.344515078394</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="R36" t="n">
         <v>1246.635328139857</v>
@@ -7058,10 +7058,10 @@
         <v>297.607170200882</v>
       </c>
       <c r="X36" t="n">
-        <v>108.3000925508937</v>
+        <v>154.3621544641633</v>
       </c>
       <c r="Y36" t="n">
-        <v>108.3000925508937</v>
+        <v>154.3621544641633</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>708.1192039362915</v>
+        <v>192.2398341911993</v>
       </c>
       <c r="C37" t="n">
-        <v>652.1840967560299</v>
+        <v>192.2398341911993</v>
       </c>
       <c r="D37" t="n">
-        <v>652.1840967560299</v>
+        <v>192.2398341911993</v>
       </c>
       <c r="E37" t="n">
-        <v>496.6252846152325</v>
+        <v>192.2398341911993</v>
       </c>
       <c r="F37" t="n">
-        <v>339.2993498282054</v>
+        <v>192.2398341911993</v>
       </c>
       <c r="G37" t="n">
-        <v>171.9922221998033</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="H37" t="n">
         <v>24.93270656279714</v>
@@ -7095,16 +7095,16 @@
         <v>24.93270656279714</v>
       </c>
       <c r="J37" t="n">
-        <v>24.93270656279714</v>
+        <v>60.77439242645069</v>
       </c>
       <c r="K37" t="n">
-        <v>214.5940528974713</v>
+        <v>250.4357387611249</v>
       </c>
       <c r="L37" t="n">
-        <v>265.7763111005784</v>
+        <v>552.5439260250087</v>
       </c>
       <c r="M37" t="n">
-        <v>574.318554815193</v>
+        <v>608.6263249772646</v>
       </c>
       <c r="N37" t="n">
         <v>847.9944999840384</v>
@@ -7119,28 +7119,28 @@
         <v>1246.635328139857</v>
       </c>
       <c r="R37" t="n">
-        <v>1165.311587336665</v>
+        <v>1209.359736945034</v>
       </c>
       <c r="S37" t="n">
-        <v>1165.311587336665</v>
+        <v>1209.359736945034</v>
       </c>
       <c r="T37" t="n">
-        <v>1165.311587336665</v>
+        <v>977.6866428215553</v>
       </c>
       <c r="U37" t="n">
-        <v>1165.311587336665</v>
+        <v>692.2995015873919</v>
       </c>
       <c r="V37" t="n">
-        <v>1165.311587336665</v>
+        <v>426.3201564082162</v>
       </c>
       <c r="W37" t="n">
-        <v>1165.311587336665</v>
+        <v>426.3201564082162</v>
       </c>
       <c r="X37" t="n">
-        <v>931.2312651196481</v>
+        <v>192.2398341911993</v>
       </c>
       <c r="Y37" t="n">
-        <v>708.1192039362915</v>
+        <v>192.2398341911993</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1246.635328139857</v>
+        <v>642.2032800694824</v>
       </c>
       <c r="C38" t="n">
-        <v>1246.635328139857</v>
+        <v>642.2032800694824</v>
       </c>
       <c r="D38" t="n">
-        <v>1246.635328139857</v>
+        <v>642.2032800694824</v>
       </c>
       <c r="E38" t="n">
-        <v>931.8284270944384</v>
+        <v>327.3963790240639</v>
       </c>
       <c r="F38" t="n">
-        <v>642.2032800694824</v>
+        <v>327.3963790240639</v>
       </c>
       <c r="G38" t="n">
         <v>327.3963790240639</v>
@@ -7177,16 +7177,16 @@
         <v>84.03350630819227</v>
       </c>
       <c r="K38" t="n">
-        <v>205.5903216845597</v>
+        <v>205.59032168456</v>
       </c>
       <c r="L38" t="n">
-        <v>380.3784451554879</v>
+        <v>380.3784451554881</v>
       </c>
       <c r="M38" t="n">
-        <v>595.4490449214284</v>
+        <v>595.4490449214286</v>
       </c>
       <c r="N38" t="n">
-        <v>816.9986872872128</v>
+        <v>816.9986872872129</v>
       </c>
       <c r="O38" t="n">
         <v>1017.53381235417</v>
@@ -7210,16 +7210,16 @@
         <v>1246.635328139857</v>
       </c>
       <c r="V38" t="n">
-        <v>1246.635328139857</v>
+        <v>957.0101811149009</v>
       </c>
       <c r="W38" t="n">
-        <v>1246.635328139857</v>
+        <v>957.0101811149009</v>
       </c>
       <c r="X38" t="n">
-        <v>1246.635328139857</v>
+        <v>957.0101811149009</v>
       </c>
       <c r="Y38" t="n">
-        <v>1246.635328139857</v>
+        <v>642.2032800694824</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>486.271851157574</v>
+        <v>345.6837640465532</v>
       </c>
       <c r="C39" t="n">
-        <v>486.271851157574</v>
+        <v>345.6837640465532</v>
       </c>
       <c r="D39" t="n">
-        <v>356.1828837790544</v>
+        <v>345.6837640465532</v>
       </c>
       <c r="E39" t="n">
-        <v>356.1828837790544</v>
+        <v>345.6837640465532</v>
       </c>
       <c r="F39" t="n">
-        <v>231.7510776621862</v>
+        <v>221.251957929685</v>
       </c>
       <c r="G39" t="n">
-        <v>112.8207494933212</v>
+        <v>102.32162976082</v>
       </c>
       <c r="H39" t="n">
-        <v>35.43182629529829</v>
+        <v>24.93270656279714</v>
       </c>
       <c r="I39" t="n">
         <v>24.93270656279714</v>
@@ -7280,25 +7280,25 @@
         <v>1246.635328139857</v>
       </c>
       <c r="S39" t="n">
-        <v>1132.684427927931</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="T39" t="n">
-        <v>1132.684427927931</v>
+        <v>1246.635328139857</v>
       </c>
       <c r="U39" t="n">
-        <v>1090.725433094181</v>
+        <v>1036.646493355293</v>
       </c>
       <c r="V39" t="n">
-        <v>868.1854314652485</v>
+        <v>814.10649172636</v>
       </c>
       <c r="W39" t="n">
-        <v>638.0681855985354</v>
+        <v>583.9892458596469</v>
       </c>
       <c r="X39" t="n">
-        <v>638.0681855985354</v>
+        <v>394.6821682096585</v>
       </c>
       <c r="Y39" t="n">
-        <v>638.0681855985354</v>
+        <v>394.6821682096585</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>756.8018665891345</v>
+        <v>410.2803026136474</v>
       </c>
       <c r="C40" t="n">
-        <v>756.8018665891345</v>
+        <v>410.2803026136474</v>
       </c>
       <c r="D40" t="n">
-        <v>756.8018665891345</v>
+        <v>410.2803026136474</v>
       </c>
       <c r="E40" t="n">
-        <v>601.243054448337</v>
+        <v>410.2803026136474</v>
       </c>
       <c r="F40" t="n">
-        <v>443.9171196613099</v>
+        <v>252.9543678266203</v>
       </c>
       <c r="G40" t="n">
-        <v>276.6099920329078</v>
+        <v>252.9543678266203</v>
       </c>
       <c r="H40" t="n">
         <v>129.5504763959017</v>
@@ -7335,19 +7335,19 @@
         <v>24.93270656279714</v>
       </c>
       <c r="K40" t="n">
-        <v>49.73898015478994</v>
+        <v>214.5940528974713</v>
       </c>
       <c r="L40" t="n">
-        <v>351.8471674186737</v>
+        <v>516.7022401613551</v>
       </c>
       <c r="M40" t="n">
-        <v>660.3894111332883</v>
+        <v>579.6340869074708</v>
       </c>
       <c r="N40" t="n">
-        <v>968.9316548479028</v>
+        <v>639.4903636018335</v>
       </c>
       <c r="O40" t="n">
-        <v>1141.87950126942</v>
+        <v>933.3753648872143</v>
       </c>
       <c r="P40" t="n">
         <v>1165.498883145001</v>
@@ -7359,25 +7359,25 @@
         <v>1165.311587336665</v>
       </c>
       <c r="S40" t="n">
-        <v>1165.311587336665</v>
+        <v>978.9978459166332</v>
       </c>
       <c r="T40" t="n">
-        <v>1165.311587336665</v>
+        <v>978.9978459166332</v>
       </c>
       <c r="U40" t="n">
-        <v>1165.311587336665</v>
+        <v>693.6107046824698</v>
       </c>
       <c r="V40" t="n">
-        <v>899.3322421574895</v>
+        <v>693.6107046824698</v>
       </c>
       <c r="W40" t="n">
-        <v>756.8018665891345</v>
+        <v>410.2803026136474</v>
       </c>
       <c r="X40" t="n">
-        <v>756.8018665891345</v>
+        <v>410.2803026136474</v>
       </c>
       <c r="Y40" t="n">
-        <v>756.8018665891345</v>
+        <v>410.2803026136474</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.95496747438085</v>
+        <v>931.8284270944382</v>
       </c>
       <c r="C41" t="n">
-        <v>87.95496747438085</v>
+        <v>654.5465086536337</v>
       </c>
       <c r="D41" t="n">
-        <v>24.93270656279713</v>
+        <v>654.5465086536337</v>
       </c>
       <c r="E41" t="n">
-        <v>24.93270656279713</v>
+        <v>339.7396076082155</v>
       </c>
       <c r="F41" t="n">
         <v>24.93270656279713</v>
@@ -7411,16 +7411,16 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J41" t="n">
-        <v>84.03350630819233</v>
+        <v>84.03350630819216</v>
       </c>
       <c r="K41" t="n">
-        <v>205.59032168456</v>
+        <v>205.5903216845599</v>
       </c>
       <c r="L41" t="n">
-        <v>380.3784451554881</v>
+        <v>380.378445155488</v>
       </c>
       <c r="M41" t="n">
-        <v>595.4490449214286</v>
+        <v>595.4490449214285</v>
       </c>
       <c r="N41" t="n">
         <v>816.9986872872128</v>
@@ -7441,22 +7441,22 @@
         <v>1246.635328139856</v>
       </c>
       <c r="T41" t="n">
-        <v>1032.375670610636</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="U41" t="n">
-        <v>1032.375670610636</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="V41" t="n">
-        <v>1032.375670610636</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="W41" t="n">
-        <v>717.5687695652175</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="X41" t="n">
-        <v>402.7618685197992</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.95496747438085</v>
+        <v>1246.635328139856</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>154.3621544641633</v>
+        <v>297.6071702008818</v>
       </c>
       <c r="C42" t="n">
-        <v>154.3621544641633</v>
+        <v>273.9520021101818</v>
       </c>
       <c r="D42" t="n">
-        <v>154.3621544641633</v>
+        <v>143.8630347316621</v>
       </c>
       <c r="E42" t="n">
-        <v>154.3621544641633</v>
+        <v>143.8630347316621</v>
       </c>
       <c r="F42" t="n">
-        <v>154.3621544641633</v>
+        <v>143.8630347316621</v>
       </c>
       <c r="G42" t="n">
-        <v>35.43182629529829</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="H42" t="n">
-        <v>35.43182629529829</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I42" t="n">
         <v>24.93270656279713</v>
       </c>
       <c r="J42" t="n">
-        <v>47.90113748809811</v>
+        <v>242.6361324678255</v>
       </c>
       <c r="K42" t="n">
-        <v>309.6806743726181</v>
+        <v>332.6934753482186</v>
       </c>
       <c r="L42" t="n">
-        <v>460.8835373925521</v>
+        <v>483.8963383681526</v>
       </c>
       <c r="M42" t="n">
-        <v>649.9121110704803</v>
+        <v>672.9249120460807</v>
       </c>
       <c r="N42" t="n">
-        <v>853.3093278168233</v>
+        <v>876.3221287924238</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.935177388859</v>
+        <v>1047.947978364459</v>
       </c>
       <c r="P42" t="n">
-        <v>1150.113559414462</v>
+        <v>1173.126360390062</v>
       </c>
       <c r="Q42" t="n">
-        <v>1201.344515078394</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="R42" t="n">
         <v>1246.635328139856</v>
@@ -7526,16 +7526,16 @@
         <v>750.2644176965279</v>
       </c>
       <c r="V42" t="n">
-        <v>750.2644176965279</v>
+        <v>527.7244160675949</v>
       </c>
       <c r="W42" t="n">
-        <v>674.7797834796057</v>
+        <v>297.6071702008818</v>
       </c>
       <c r="X42" t="n">
-        <v>485.4727058296174</v>
+        <v>297.6071702008818</v>
       </c>
       <c r="Y42" t="n">
-        <v>306.1584889051246</v>
+        <v>297.6071702008818</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>220.725401436497</v>
+        <v>599.4759318021074</v>
       </c>
       <c r="C43" t="n">
-        <v>220.725401436497</v>
+        <v>599.4759318021074</v>
       </c>
       <c r="D43" t="n">
-        <v>220.725401436497</v>
+        <v>599.4759318021074</v>
       </c>
       <c r="E43" t="n">
-        <v>220.725401436497</v>
+        <v>443.9171196613099</v>
       </c>
       <c r="F43" t="n">
-        <v>192.2398341911993</v>
+        <v>443.9171196613099</v>
       </c>
       <c r="G43" t="n">
-        <v>24.93270656279713</v>
+        <v>276.6099920329078</v>
       </c>
       <c r="H43" t="n">
-        <v>24.93270656279713</v>
+        <v>129.5504763959016</v>
       </c>
       <c r="I43" t="n">
         <v>24.93270656279713</v>
       </c>
       <c r="J43" t="n">
-        <v>60.77439242645068</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="K43" t="n">
-        <v>250.4357387611249</v>
+        <v>214.5940528974713</v>
       </c>
       <c r="L43" t="n">
-        <v>552.5439260250087</v>
+        <v>355.343870702929</v>
       </c>
       <c r="M43" t="n">
-        <v>861.0861697396231</v>
+        <v>663.8861144175435</v>
       </c>
       <c r="N43" t="n">
-        <v>1169.628413454237</v>
+        <v>972.4283581321579</v>
       </c>
       <c r="O43" t="n">
-        <v>1211.711865204149</v>
+        <v>1014.51180988207</v>
       </c>
       <c r="P43" t="n">
         <v>1246.635328139856</v>
@@ -7593,28 +7593,28 @@
         <v>1246.635328139856</v>
       </c>
       <c r="R43" t="n">
-        <v>1246.635328139856</v>
+        <v>1165.311587336665</v>
       </c>
       <c r="S43" t="n">
-        <v>1246.635328139856</v>
+        <v>978.9978459166327</v>
       </c>
       <c r="T43" t="n">
-        <v>1246.635328139856</v>
+        <v>978.9978459166327</v>
       </c>
       <c r="U43" t="n">
-        <v>961.248186905693</v>
+        <v>693.6107046824693</v>
       </c>
       <c r="V43" t="n">
-        <v>961.248186905693</v>
+        <v>599.4759318021074</v>
       </c>
       <c r="W43" t="n">
-        <v>677.9177848368706</v>
+        <v>599.4759318021074</v>
       </c>
       <c r="X43" t="n">
-        <v>443.8374626198537</v>
+        <v>599.4759318021074</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.725401436497</v>
+        <v>599.4759318021074</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>654.5465086536337</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="C44" t="n">
-        <v>654.5465086536337</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="D44" t="n">
-        <v>654.5465086536337</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="E44" t="n">
-        <v>339.7396076082155</v>
+        <v>931.8284270944382</v>
       </c>
       <c r="F44" t="n">
-        <v>24.93270656279713</v>
+        <v>617.0215260490199</v>
       </c>
       <c r="G44" t="n">
-        <v>24.93270656279713</v>
+        <v>302.2146250036016</v>
       </c>
       <c r="H44" t="n">
         <v>24.93270656279713</v>
@@ -7648,16 +7648,16 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J44" t="n">
-        <v>84.03350630819216</v>
+        <v>84.03350630819239</v>
       </c>
       <c r="K44" t="n">
-        <v>205.5903216845599</v>
+        <v>205.59032168456</v>
       </c>
       <c r="L44" t="n">
-        <v>380.378445155488</v>
+        <v>380.3784451554881</v>
       </c>
       <c r="M44" t="n">
-        <v>595.4490449214285</v>
+        <v>595.4490449214286</v>
       </c>
       <c r="N44" t="n">
         <v>816.9986872872128</v>
@@ -7675,25 +7675,25 @@
         <v>1246.635328139856</v>
       </c>
       <c r="S44" t="n">
-        <v>1224.937258489374</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="T44" t="n">
-        <v>1224.937258489374</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="U44" t="n">
-        <v>969.353409699052</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="V44" t="n">
-        <v>654.5465086536337</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="W44" t="n">
-        <v>654.5465086536337</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="X44" t="n">
-        <v>654.5465086536337</v>
+        <v>1246.635328139856</v>
       </c>
       <c r="Y44" t="n">
-        <v>654.5465086536337</v>
+        <v>1246.635328139856</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>502.983494735355</v>
+        <v>138.9747104109648</v>
       </c>
       <c r="C45" t="n">
-        <v>426.3990906797984</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="D45" t="n">
-        <v>296.3101233012787</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="E45" t="n">
-        <v>159.8636324121665</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="F45" t="n">
-        <v>35.43182629529829</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="G45" t="n">
-        <v>35.43182629529829</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="H45" t="n">
-        <v>35.43182629529829</v>
+        <v>24.93270656279713</v>
       </c>
       <c r="I45" t="n">
         <v>24.93270656279713</v>
       </c>
       <c r="J45" t="n">
-        <v>47.90113748809811</v>
+        <v>242.6361324678255</v>
       </c>
       <c r="K45" t="n">
-        <v>137.9584803684911</v>
+        <v>332.6934753482186</v>
       </c>
       <c r="L45" t="n">
-        <v>289.1613433884252</v>
+        <v>483.8963383681526</v>
       </c>
       <c r="M45" t="n">
-        <v>478.1899170663534</v>
+        <v>672.9249120460807</v>
       </c>
       <c r="N45" t="n">
-        <v>716.3929336742447</v>
+        <v>876.3221287924238</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.935177388859</v>
+        <v>1047.947978364459</v>
       </c>
       <c r="P45" t="n">
-        <v>1150.113559414462</v>
+        <v>1173.126360390062</v>
       </c>
       <c r="Q45" t="n">
-        <v>1201.344515078394</v>
+        <v>1224.357316053995</v>
       </c>
       <c r="R45" t="n">
         <v>1246.635328139856</v>
       </c>
       <c r="S45" t="n">
-        <v>1246.635328139856</v>
+        <v>1132.684427927931</v>
       </c>
       <c r="T45" t="n">
-        <v>1074.204152693018</v>
+        <v>960.253252481092</v>
       </c>
       <c r="U45" t="n">
-        <v>1074.204152693018</v>
+        <v>960.253252481092</v>
       </c>
       <c r="V45" t="n">
-        <v>1074.204152693018</v>
+        <v>737.713250852159</v>
       </c>
       <c r="W45" t="n">
-        <v>844.0869068263046</v>
+        <v>507.5960049854459</v>
       </c>
       <c r="X45" t="n">
-        <v>654.7798291763163</v>
+        <v>318.2889273354576</v>
       </c>
       <c r="Y45" t="n">
-        <v>654.7798291763163</v>
+        <v>138.9747104109648</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>443.9171196613099</v>
+        <v>247.2650843969614</v>
       </c>
       <c r="C46" t="n">
-        <v>443.9171196613099</v>
+        <v>247.2650843969614</v>
       </c>
       <c r="D46" t="n">
-        <v>443.9171196613099</v>
+        <v>247.2650843969614</v>
       </c>
       <c r="E46" t="n">
-        <v>443.9171196613099</v>
+        <v>129.5504763959016</v>
       </c>
       <c r="F46" t="n">
-        <v>443.9171196613099</v>
+        <v>129.5504763959016</v>
       </c>
       <c r="G46" t="n">
-        <v>276.6099920329078</v>
+        <v>129.5504763959016</v>
       </c>
       <c r="H46" t="n">
         <v>129.5504763959016</v>
@@ -7806,22 +7806,22 @@
         <v>24.93270656279713</v>
       </c>
       <c r="J46" t="n">
-        <v>24.93270656279713</v>
+        <v>60.77439242645068</v>
       </c>
       <c r="K46" t="n">
-        <v>49.73898015478994</v>
+        <v>85.58066601844348</v>
       </c>
       <c r="L46" t="n">
-        <v>312.0464575496653</v>
+        <v>136.7629242215506</v>
       </c>
       <c r="M46" t="n">
-        <v>620.5887012642797</v>
+        <v>412.0845648820745</v>
       </c>
       <c r="N46" t="n">
-        <v>929.1309449788941</v>
+        <v>720.626808596689</v>
       </c>
       <c r="O46" t="n">
-        <v>1223.015946264275</v>
+        <v>1014.51180988207</v>
       </c>
       <c r="P46" t="n">
         <v>1246.635328139856</v>
@@ -7830,28 +7830,28 @@
         <v>1246.635328139856</v>
       </c>
       <c r="R46" t="n">
-        <v>1246.635328139856</v>
+        <v>1165.311587336665</v>
       </c>
       <c r="S46" t="n">
-        <v>1226.956700198128</v>
+        <v>978.9978459166327</v>
       </c>
       <c r="T46" t="n">
-        <v>995.2836060746492</v>
+        <v>747.3247517931541</v>
       </c>
       <c r="U46" t="n">
-        <v>709.8964648404857</v>
+        <v>747.3247517931541</v>
       </c>
       <c r="V46" t="n">
-        <v>443.9171196613099</v>
+        <v>481.3454066139783</v>
       </c>
       <c r="W46" t="n">
-        <v>443.9171196613099</v>
+        <v>481.3454066139783</v>
       </c>
       <c r="X46" t="n">
-        <v>443.9171196613099</v>
+        <v>247.2650843969614</v>
       </c>
       <c r="Y46" t="n">
-        <v>443.9171196613099</v>
+        <v>247.2650843969614</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>33.98903573391635</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>185.2160219080926</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.50304251097137</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>25.2655088839814</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.26881336884887</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>255.0099442044024</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>251.1979464851026</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>214.1422622893537</v>
+        <v>225.0599105713877</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.97901002398311</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>22.5030425109718</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>219.2050576420099</v>
       </c>
       <c r="R15" t="n">
         <v>25.2655088839814</v>
@@ -9093,19 +9093,19 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>181.3251498105159</v>
+        <v>255.0099442044026</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>251.1979464851029</v>
       </c>
       <c r="O16" t="n">
-        <v>254.3449995307766</v>
+        <v>11.41826369709677</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>19.97901002398311</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>8.850944358056068</v>
+        <v>8.85094435805604</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>219.2050576420096</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>173.45676162033</v>
       </c>
       <c r="R18" t="n">
-        <v>25.2655088839814</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,16 +9330,16 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>255.0099442044024</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>225.0599105713884</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>180.6602051368899</v>
       </c>
       <c r="Q19" t="n">
         <v>101.9350150692923</v>
@@ -9479,13 +9479,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>33.98903573391659</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>80.9056696192026</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>138.2993880228069</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>185.2160219080929</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9561,16 +9561,16 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>139.497774457992</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>52.67091608592106</v>
       </c>
       <c r="N22" t="n">
-        <v>251.1979464851028</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>254.3449995307766</v>
@@ -9579,7 +9579,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>19.97901002398309</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>22.50304251097158</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4567616203303</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>25.26550888398138</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,22 +9801,22 @@
         <v>166.520275497658</v>
       </c>
       <c r="L25" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>255.0099442044025</v>
       </c>
       <c r="N25" t="n">
         <v>251.1979464851028</v>
       </c>
       <c r="O25" t="n">
-        <v>184.47220285619</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>10.53379857114476</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.9350150692923</v>
+        <v>19.97901002398309</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>173.4567616203302</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>173.4567616203303</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>16.26881336884885</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>46.73752166574431</v>
       </c>
       <c r="M28" t="n">
         <v>255.0099442044025</v>
@@ -10050,10 +10050,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P28" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.62656841748102</v>
+        <v>19.97901002398309</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>22.50304251097158</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.2050576420095</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>25.26550888398138</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.26881336884885</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L31" t="n">
-        <v>2.647558393498073</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M31" t="n">
         <v>255.0099442044025</v>
@@ -10284,10 +10284,10 @@
         <v>251.1979464851028</v>
       </c>
       <c r="O31" t="n">
-        <v>254.3449995307766</v>
+        <v>11.41826369709651</v>
       </c>
       <c r="P31" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>19.97901002398309</v>
@@ -10436,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>120.7208788249357</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.73588279539456</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>173.4567616203309</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>52.4725364634484</v>
+        <v>16.26881336884885</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M34" t="n">
-        <v>96.64747882307132</v>
+        <v>255.0099442044026</v>
       </c>
       <c r="N34" t="n">
-        <v>251.1979464851028</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>254.3449995307766</v>
+        <v>88.20969450689505</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.9350150692923</v>
+        <v>19.97901002398309</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>22.50304251097158</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.4567616203304</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>25.26550888398138</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.26881336884885</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
-        <v>255.0099442044025</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>215.979463105538</v>
+        <v>181.3251498105162</v>
       </c>
       <c r="O37" t="n">
         <v>254.3449995307766</v>
@@ -10983,22 +10983,22 @@
         <v>16.26881336884885</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>255.0099442044026</v>
+        <v>6.91863413521174</v>
       </c>
       <c r="N40" t="n">
-        <v>251.1979464851029</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>132.1862572440452</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
         <v>101.9350150692923</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>173.4567616203302</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>22.50304251097158</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>25.26550888398138</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>16.26881336884885</v>
       </c>
       <c r="K43" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>253.4605344048249</v>
+        <v>90.47228242661672</v>
       </c>
       <c r="M43" t="n">
         <v>255.0099442044025</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>11.41826369709642</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
         <v>19.97901002398309</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,10 +11387,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>35.15737359752353</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>138.2993880228068</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>47.76855139495308</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.26881336884885</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>213.2577971634022</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>255.0099442044025</v>
+        <v>221.4537795033009</v>
       </c>
       <c r="N46" t="n">
         <v>251.1979464851028</v>
@@ -11472,7 +11472,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
         <v>19.97901002398309</v>
@@ -22798,7 +22798,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>8.417632379864196</v>
+        <v>8.417632379864187</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>8.349649946278443</v>
+        <v>8.349649946278419</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.83096621931895</v>
+        <v>180.5747098300129</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23272,10 +23272,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>120.2123328105663</v>
+        <v>406.9412283652723</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>299.4390357366541</v>
       </c>
       <c r="I11" t="n">
         <v>56.38289173312509</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.1170609539285</v>
       </c>
       <c r="U11" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>27.02690916855289</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>73.89924698130983</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.86696995364093</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>124.2089809442268</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>117.7410248871764</v>
@@ -23357,7 +23357,7 @@
         <v>76.61503396604265</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.39412853517615</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T12" t="n">
-        <v>105.3814911622093</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23433,10 +23433,10 @@
         <v>165.6340563521181</v>
       </c>
       <c r="H13" t="n">
-        <v>145.5889204806361</v>
+        <v>124.6056636450788</v>
       </c>
       <c r="I13" t="n">
-        <v>103.5715921347735</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.8259343364733</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>69.92788546053487</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>86.89885759965682</v>
+        <v>86.89885759965671</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>95.28239633030825</v>
+        <v>406.9412283652723</v>
       </c>
       <c r="H14" t="n">
-        <v>24.92993648025782</v>
+        <v>139.9068390455087</v>
       </c>
       <c r="I14" t="n">
-        <v>56.38289173312509</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.1170609539285</v>
       </c>
       <c r="U14" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>80.86696995364071</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>59.73636233209585</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>93.34462627083303</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>76.61503396604265</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.39412853517615</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6340563521181</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.5889204806361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>103.5715921347735</v>
@@ -23703,7 +23703,7 @@
         <v>80.51050339515963</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>229.3563631822438</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>169.3999695502806</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>31.95978173528641</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23734,16 +23734,16 @@
         <v>84.83096621931884</v>
       </c>
       <c r="C17" t="n">
-        <v>77.58491444713462</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>69.92788546053487</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>124.0485903782246</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>138.2163948289257</v>
       </c>
       <c r="G17" t="n">
         <v>406.9412283652723</v>
@@ -23752,7 +23752,7 @@
         <v>299.4390357366541</v>
       </c>
       <c r="I17" t="n">
-        <v>56.38289173312509</v>
+        <v>56.38289173312508</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>73.89924698130966</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>80.86696995364082</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>149.1476881355087</v>
@@ -23822,16 +23822,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.39412853517615</v>
+        <v>10.39412853517614</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U18" t="n">
-        <v>58.64288072477331</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>169.8869331811215</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>147.8124768950775</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.6340563521181</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>111.1817948192868</v>
+        <v>282.5332698218218</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>84.83096621931873</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>69.92788546053475</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>86.89885759965671</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>255.4412273935967</v>
       </c>
       <c r="G20" t="n">
         <v>406.9412283652723</v>
@@ -23989,7 +23989,7 @@
         <v>299.4390357366541</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.38289173312508</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.1170609539285</v>
@@ -24028,13 +24028,13 @@
         <v>253.028010302419</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>27.02690916855261</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>167.4318714930024</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>80.86696995364071</v>
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>123.281917614435</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>120.9889971540161</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H21" t="n">
         <v>76.61503396604265</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>227.816073408046</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6340563521181</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.7405122327713</v>
+        <v>145.5889204806361</v>
       </c>
       <c r="I22" t="n">
-        <v>103.5715921347735</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>95.61239295219406</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.3563631822438</v>
       </c>
       <c r="U22" t="n">
         <v>282.5332698218218</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24217,13 +24217,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>101.0666620503578</v>
       </c>
       <c r="G23" t="n">
         <v>406.9412283652723</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>178.416175701641</v>
       </c>
       <c r="I23" t="n">
         <v>56.38289173312508</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>42.61299796389308</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.028010302419</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>27.02690916855261</v>
       </c>
       <c r="W23" t="n">
-        <v>55.63021264643123</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -24290,10 +24290,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>87.52945897280948</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
@@ -24335,16 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U24" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>151.1739039972562</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>86.4114013870763</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.51050339515962</v>
       </c>
       <c r="S25" t="n">
         <v>184.4506040058318</v>
@@ -24420,16 +24420,16 @@
         <v>229.3563631822438</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5332698218218</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>168.2411236024055</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24445,7 +24445,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>77.58491444713451</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24454,7 +24454,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>101.0666620503578</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>406.9412283652723</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.1170609539285</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>334.8877137331748</v>
+        <v>27.02690916855261</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>345.8079557274181</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>73.89924698130955</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.86696995364071</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
@@ -24536,13 +24536,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.7410248871764</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.39412853517614</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,22 +24575,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>170.7068636923703</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>10.26145875645179</v>
+        <v>134.4667608161382</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,19 +24606,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>140.4405962296986</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.6340563521181</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.5889204806361</v>
       </c>
       <c r="I28" t="n">
         <v>103.5715921347735</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -24669,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.91178806243784</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84.83096621931873</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24688,7 +24688,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>265.3150333012977</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -24697,10 +24697,10 @@
         <v>406.9412283652723</v>
       </c>
       <c r="H29" t="n">
-        <v>299.4390357366541</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>52.58486426278306</v>
+        <v>56.38289173312508</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>27.02690916855261</v>
       </c>
       <c r="W29" t="n">
-        <v>55.63021264643123</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24761,25 +24761,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>76.61503396604265</v>
       </c>
       <c r="I30" t="n">
-        <v>10.39412853517614</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.8889464367184</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>112.7022011372897</v>
+        <v>110.3111248395784</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24858,7 +24858,7 @@
         <v>145.5889204806361</v>
       </c>
       <c r="I31" t="n">
-        <v>23.537342576596</v>
+        <v>103.5715921347735</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.51050339515962</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.3563631822438</v>
+        <v>134.4276547887051</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5332698218218</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>319.6300336540849</v>
+        <v>84.83096621931861</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -24928,16 +24928,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>101.0666620503578</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>406.9412283652723</v>
+        <v>95.28239633030802</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>299.4390357366541</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>56.38289173312508</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>117.2248325646711</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>54.83279426220315</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24982,7 +24982,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>73.89924698130943</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>39.73014179867836</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>64.52990121823638</v>
       </c>
       <c r="G33" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>76.61503396604265</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>170.7068636923703</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.8889464367184</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>103.5715921347735</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.4506040058318</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>48.26517665402449</v>
+        <v>282.5332698218218</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>145.2661414948924</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,13 +25165,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>101.0666620503578</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>95.28239633030813</v>
       </c>
       <c r="H35" t="n">
-        <v>98.99588969701816</v>
+        <v>293.4298891673113</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>253.028010302419</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>27.02690916855261</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25222,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>80.86696995364071</v>
       </c>
     </row>
     <row r="36">
@@ -25247,10 +25247,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>117.7410248871764</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>4.475450373003213</v>
+        <v>76.61503396604265</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>45.60144129413692</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -25314,22 +25314,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>113.1273106462118</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.5889204806361</v>
       </c>
       <c r="I37" t="n">
         <v>103.5715921347735</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>43.60766811228514</v>
       </c>
       <c r="S37" t="n">
         <v>184.4506040058318</v>
       </c>
       <c r="T37" t="n">
-        <v>229.3563631822438</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5332698218218</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25402,10 +25402,10 @@
         <v>86.89885759965665</v>
       </c>
       <c r="F38" t="n">
-        <v>125.9965985306155</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>95.28239633030807</v>
+        <v>406.9412283652723</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>253.028010302419</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>51.95684564881032</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>80.86696995364065</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>101.7699509750775</v>
       </c>
       <c r="C39" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.39412853517614</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>112.8113912098066</v>
       </c>
       <c r="T39" t="n">
         <v>170.7068636923703</v>
       </c>
       <c r="U39" t="n">
-        <v>166.3495415513062</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -25557,16 +25557,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6340563521181</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>23.41906796422457</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>229.3563631822438</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5332698218218</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>139.3920262354627</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>84.83096621931878</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>114.7346472257022</v>
       </c>
       <c r="D41" t="n">
-        <v>319.194679193031</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>86.89885759965676</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>101.0666620503579</v>
       </c>
       <c r="G41" t="n">
         <v>406.9412283652723</v>
@@ -25681,7 +25681,7 @@
         <v>117.2248325646711</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.1170609539285</v>
       </c>
       <c r="U41" t="n">
         <v>253.028010302419</v>
@@ -25690,13 +25690,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>55.63021264643129</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>73.8992469813096</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.86696995364076</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>125.7290717257157</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
@@ -25727,7 +25727,7 @@
         <v>76.61503396604265</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.39412853517614</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25766,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>153.0862855332931</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25794,19 +25794,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>127.551963866312</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.5889204806361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>103.5715921347735</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.51050339515962</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.4506040058318</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>229.3563631822438</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>170.1261265758258</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25879,10 +25879,10 @@
         <v>101.0666620503579</v>
       </c>
       <c r="G44" t="n">
-        <v>406.9412283652723</v>
+        <v>95.28239633030819</v>
       </c>
       <c r="H44" t="n">
-        <v>299.4390357366541</v>
+        <v>24.92993648025765</v>
       </c>
       <c r="I44" t="n">
         <v>56.38289173312508</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>95.74374361069364</v>
+        <v>117.2248325646711</v>
       </c>
       <c r="T44" t="n">
         <v>212.1170609539285</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.028010302419</v>
       </c>
       <c r="V44" t="n">
-        <v>27.02690916855266</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>73.32912812050772</v>
+        <v>36.24610432582271</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>117.7410248871764</v>
@@ -25964,7 +25964,7 @@
         <v>76.61503396604265</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.39412853517614</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>112.8113912098066</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>207.8889464367184</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26031,16 +26031,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>37.46576209834035</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.6340563521181</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.5889204806361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.51050339515962</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>164.9687623435206</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5332698218218</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>361963.1707988537</v>
+        <v>361963.1707988536</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>361963.1707988538</v>
+        <v>361963.1707988539</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>361963.1707988538</v>
+        <v>361963.1707988539</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>361963.1707988538</v>
+        <v>361963.1707988539</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>361963.1707988538</v>
+        <v>361963.1707988539</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>361963.170798854</v>
+        <v>361963.1707988539</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>361963.1707988538</v>
+        <v>361963.1707988539</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>557687.5860756227</v>
       </c>
       <c r="C2" t="n">
-        <v>557725.4326177688</v>
+        <v>557725.4326177689</v>
       </c>
       <c r="D2" t="n">
         <v>557729.6264540965</v>
       </c>
       <c r="E2" t="n">
-        <v>271269.0393246975</v>
+        <v>271269.0393246976</v>
       </c>
       <c r="F2" t="n">
+        <v>271269.0393246976</v>
+      </c>
+      <c r="G2" t="n">
         <v>271269.0393246977</v>
-      </c>
-      <c r="G2" t="n">
-        <v>271269.0393246976</v>
       </c>
       <c r="H2" t="n">
         <v>271269.0393246978</v>
@@ -26340,19 +26340,19 @@
         <v>271269.0393246977</v>
       </c>
       <c r="K2" t="n">
-        <v>271269.0393246976</v>
+        <v>271269.0393246977</v>
       </c>
       <c r="L2" t="n">
         <v>271269.0393246977</v>
       </c>
       <c r="M2" t="n">
-        <v>271269.0393246976</v>
+        <v>271269.0393246978</v>
       </c>
       <c r="N2" t="n">
         <v>271269.0393246977</v>
       </c>
       <c r="O2" t="n">
-        <v>271269.0393246977</v>
+        <v>271269.0393246976</v>
       </c>
       <c r="P2" t="n">
         <v>271269.0393246977</v>
@@ -26371,13 +26371,13 @@
         <v>138964.2619804443</v>
       </c>
       <c r="D3" t="n">
-        <v>14482.50058438101</v>
+        <v>14482.50058438103</v>
       </c>
       <c r="E3" t="n">
         <v>374522.5889583015</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.092592171136463e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>77666.62757844117</v>
+        <v>77666.62757844114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>351866.1076502491</v>
       </c>
       <c r="E4" t="n">
+        <v>20959.47352844995</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20959.47352845</v>
+      </c>
+      <c r="G4" t="n">
         <v>20959.47352844996</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20959.47352844998</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20959.47352844998</v>
       </c>
       <c r="H4" t="n">
         <v>20959.47352844998</v>
@@ -26441,13 +26441,13 @@
         <v>20959.47352844998</v>
       </c>
       <c r="J4" t="n">
-        <v>20959.47352844997</v>
+        <v>20959.47352844998</v>
       </c>
       <c r="K4" t="n">
         <v>20959.47352844998</v>
       </c>
       <c r="L4" t="n">
-        <v>20959.47352844998</v>
+        <v>20959.47352844999</v>
       </c>
       <c r="M4" t="n">
         <v>20959.47352844998</v>
@@ -26456,7 +26456,7 @@
         <v>20959.47352844999</v>
       </c>
       <c r="O4" t="n">
-        <v>20959.47352844998</v>
+        <v>20959.47352844997</v>
       </c>
       <c r="P4" t="n">
         <v>20959.47352844998</v>
@@ -26478,7 +26478,7 @@
         <v>37323.08488197248</v>
       </c>
       <c r="E5" t="n">
-        <v>30281.85999809943</v>
+        <v>30281.85999809942</v>
       </c>
       <c r="F5" t="n">
         <v>30281.85999809943</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113337.776288446</v>
+        <v>113333.4467206596</v>
       </c>
       <c r="C6" t="n">
-        <v>24275.40529553161</v>
+        <v>24271.19781336514</v>
       </c>
       <c r="D6" t="n">
-        <v>154057.933337494</v>
+        <v>154053.7393838316</v>
       </c>
       <c r="E6" t="n">
-        <v>-154494.8831601533</v>
+        <v>-155423.1435239103</v>
       </c>
       <c r="F6" t="n">
-        <v>220027.7057981484</v>
+        <v>219099.4454343909</v>
       </c>
       <c r="G6" t="n">
-        <v>220027.7057981482</v>
+        <v>219099.4454343912</v>
       </c>
       <c r="H6" t="n">
-        <v>220027.7057981484</v>
+        <v>219099.4454343913</v>
       </c>
       <c r="I6" t="n">
-        <v>220027.7057981483</v>
+        <v>219099.4454343911</v>
       </c>
       <c r="J6" t="n">
-        <v>220027.7057981483</v>
+        <v>219099.4454343911</v>
       </c>
       <c r="K6" t="n">
-        <v>220027.7057981482</v>
+        <v>219099.4454343911</v>
       </c>
       <c r="L6" t="n">
-        <v>220027.7057981483</v>
+        <v>219099.4454343912</v>
       </c>
       <c r="M6" t="n">
-        <v>142361.078219707</v>
+        <v>141432.8178559501</v>
       </c>
       <c r="N6" t="n">
-        <v>220027.7057981482</v>
+        <v>219099.4454343912</v>
       </c>
       <c r="O6" t="n">
-        <v>220027.7057981483</v>
+        <v>219099.4454343911</v>
       </c>
       <c r="P6" t="n">
-        <v>220027.7057981483</v>
+        <v>219099.4454343912</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>519.8625234116337</v>
       </c>
       <c r="G3" t="n">
-        <v>519.8625234116337</v>
+        <v>519.8625234116338</v>
       </c>
       <c r="H3" t="n">
         <v>519.8625234116338</v>
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>311.658832034964</v>
+        <v>311.6588320349639</v>
       </c>
       <c r="F4" t="n">
-        <v>311.6588320349641</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="G4" t="n">
         <v>311.6588320349641</v>
@@ -26819,7 +26819,7 @@
         <v>311.6588320349642</v>
       </c>
       <c r="L4" t="n">
-        <v>311.6588320349642</v>
+        <v>311.6588320349643</v>
       </c>
       <c r="M4" t="n">
         <v>311.6588320349642</v>
@@ -26965,7 +26965,7 @@
         <v>152.6070247818962</v>
       </c>
       <c r="D3" t="n">
-        <v>16.91063035445592</v>
+        <v>16.91063035445595</v>
       </c>
       <c r="E3" t="n">
         <v>350.3448682752815</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>311.658832034964</v>
+        <v>311.6588320349639</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.126366253371932e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>311.658832034964</v>
+        <v>311.6588320349639</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>311.658832034964</v>
+        <v>311.6588320349639</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.126366253371932e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27876,16 +27876,16 @@
         <v>110.681064734865</v>
       </c>
       <c r="J8" t="n">
-        <v>59.84024364032009</v>
+        <v>59.84024364032008</v>
       </c>
       <c r="K8" t="n">
-        <v>56.37184468858106</v>
+        <v>56.37184468858105</v>
       </c>
       <c r="L8" t="n">
         <v>45.70582857298459</v>
       </c>
       <c r="M8" t="n">
-        <v>30.06347586924086</v>
+        <v>30.06347586924085</v>
       </c>
       <c r="N8" t="n">
         <v>27.52066621168497</v>
@@ -27897,7 +27897,7 @@
         <v>52.30405746936195</v>
       </c>
       <c r="Q8" t="n">
-        <v>70.90673990138414</v>
+        <v>70.90673990138413</v>
       </c>
       <c r="R8" t="n">
         <v>97.3227064959341</v>
@@ -27970,7 +27970,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>5.934500038118188</v>
+        <v>5.934500038118173</v>
       </c>
       <c r="P9" t="n">
         <v>17.4563868068005</v>
@@ -28052,7 +28052,7 @@
         <v>46.78920077959938</v>
       </c>
       <c r="P10" t="n">
-        <v>52.55167994450286</v>
+        <v>52.55167994450285</v>
       </c>
       <c r="Q10" t="n">
         <v>72.88108513355061</v>
@@ -31518,16 +31518,16 @@
         <v>0.6814780105984001</v>
       </c>
       <c r="H8" t="n">
-        <v>6.979186676040866</v>
+        <v>6.979186676040867</v>
       </c>
       <c r="I8" t="n">
-        <v>26.27268100359484</v>
+        <v>26.27268100359485</v>
       </c>
       <c r="J8" t="n">
         <v>57.83959430202601</v>
       </c>
       <c r="K8" t="n">
-        <v>86.6865584906563</v>
+        <v>86.68655849065631</v>
       </c>
       <c r="L8" t="n">
         <v>107.5423411575071</v>
@@ -31545,7 +31545,7 @@
         <v>97.99738977156325</v>
       </c>
       <c r="Q8" t="n">
-        <v>73.59195851700802</v>
+        <v>73.59195851700804</v>
       </c>
       <c r="R8" t="n">
         <v>42.80789308325178</v>
@@ -31618,7 +31618,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>86.7530588507707</v>
+        <v>86.75305885077071</v>
       </c>
       <c r="P9" t="n">
         <v>69.62697801251416</v>
@@ -31630,10 +31630,10 @@
         <v>22.63860307651134</v>
       </c>
       <c r="S9" t="n">
-        <v>6.772710089645763</v>
+        <v>6.772710089645764</v>
       </c>
       <c r="T9" t="n">
-        <v>1.469686085568939</v>
+        <v>1.46968608556894</v>
       </c>
       <c r="U9" t="n">
         <v>0.0239883474249555</v>
@@ -31697,7 +31697,7 @@
         <v>46.77853588377405</v>
       </c>
       <c r="O10" t="n">
-        <v>43.20754921409842</v>
+        <v>43.20754921409843</v>
       </c>
       <c r="P10" t="n">
         <v>36.97152268744308</v>
@@ -31706,7 +31706,7 @@
         <v>25.59716592558917</v>
       </c>
       <c r="R10" t="n">
-        <v>13.74482495580979</v>
+        <v>13.7448249558098</v>
       </c>
       <c r="S10" t="n">
         <v>5.327300736006343</v>
@@ -32229,46 +32229,46 @@
         <v>2.089899591604556</v>
       </c>
       <c r="H17" t="n">
-        <v>21.40318419252016</v>
+        <v>21.40318419252017</v>
       </c>
       <c r="I17" t="n">
-        <v>80.57085400533472</v>
+        <v>80.57085400533474</v>
       </c>
       <c r="J17" t="n">
-        <v>177.3776154629473</v>
+        <v>177.3776154629474</v>
       </c>
       <c r="K17" t="n">
         <v>265.8430651755683</v>
       </c>
       <c r="L17" t="n">
-        <v>329.8018298021362</v>
+        <v>329.8018298021363</v>
       </c>
       <c r="M17" t="n">
-        <v>366.9680816643337</v>
+        <v>366.9680816643338</v>
       </c>
       <c r="N17" t="n">
-        <v>372.9060088789802</v>
+        <v>372.9060088789803</v>
       </c>
       <c r="O17" t="n">
-        <v>352.1245698149624</v>
+        <v>352.1245698149625</v>
       </c>
       <c r="P17" t="n">
-        <v>300.5301736472249</v>
+        <v>300.530173647225</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.6856445228866</v>
+        <v>225.6856445228867</v>
       </c>
       <c r="R17" t="n">
         <v>131.2796552211298</v>
       </c>
       <c r="S17" t="n">
-        <v>47.62358694368886</v>
+        <v>47.62358694368888</v>
       </c>
       <c r="T17" t="n">
-        <v>9.148535462248947</v>
+        <v>9.148535462248951</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1671919673283644</v>
+        <v>0.1671919673283645</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>10.79940826936243</v>
       </c>
       <c r="I18" t="n">
-        <v>38.49925291303137</v>
+        <v>38.49925291303138</v>
       </c>
       <c r="J18" t="n">
         <v>105.6448926114151</v>
       </c>
       <c r="K18" t="n">
-        <v>180.5639483438313</v>
+        <v>180.5639483438314</v>
       </c>
       <c r="L18" t="n">
         <v>242.7905115235182</v>
       </c>
       <c r="M18" t="n">
-        <v>283.3250752593403</v>
+        <v>283.3250752593404</v>
       </c>
       <c r="N18" t="n">
         <v>290.8238469413818</v>
       </c>
       <c r="O18" t="n">
-        <v>266.0470029010461</v>
+        <v>266.0470029010462</v>
       </c>
       <c r="P18" t="n">
-        <v>213.5261749461859</v>
+        <v>213.526174946186</v>
       </c>
       <c r="Q18" t="n">
         <v>142.7365932204924</v>
       </c>
       <c r="R18" t="n">
-        <v>69.42616869259518</v>
+        <v>69.4261686925952</v>
       </c>
       <c r="S18" t="n">
-        <v>20.76997911932327</v>
+        <v>20.76997911932328</v>
       </c>
       <c r="T18" t="n">
-        <v>4.507109990710294</v>
+        <v>4.507109990710295</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07356545142617461</v>
+        <v>0.07356545142617463</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9374570094308147</v>
+        <v>0.9374570094308149</v>
       </c>
       <c r="H19" t="n">
-        <v>8.334845047484887</v>
+        <v>8.334845047484889</v>
       </c>
       <c r="I19" t="n">
-        <v>28.19188897451942</v>
+        <v>28.19188897451943</v>
       </c>
       <c r="J19" t="n">
-        <v>66.2782105667586</v>
+        <v>66.27821056675862</v>
       </c>
       <c r="K19" t="n">
         <v>108.9154598229619</v>
@@ -32414,19 +32414,19 @@
         <v>113.3811641224323</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.49924103515669</v>
+        <v>78.4992410351567</v>
       </c>
       <c r="R19" t="n">
-        <v>42.15147607858917</v>
+        <v>42.15147607858918</v>
       </c>
       <c r="S19" t="n">
-        <v>16.33731897344428</v>
+        <v>16.33731897344429</v>
       </c>
       <c r="T19" t="n">
-        <v>4.005498131204389</v>
+        <v>4.00549813120439</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05113401869622632</v>
+        <v>0.05113401869622633</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>80.57085400533474</v>
       </c>
       <c r="J41" t="n">
-        <v>177.3776154629473</v>
+        <v>177.3776154629474</v>
       </c>
       <c r="K41" t="n">
         <v>265.8430651755683</v>
@@ -34374,7 +34374,7 @@
         <v>265.8430651755683</v>
       </c>
       <c r="L44" t="n">
-        <v>329.8018298021363</v>
+        <v>329.8018298021362</v>
       </c>
       <c r="M44" t="n">
         <v>366.9680816643338</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>219.9024504091195</v>
+        <v>23.20043527808177</v>
       </c>
       <c r="K12" t="n">
-        <v>90.96701301049795</v>
+        <v>124.9560487444143</v>
       </c>
       <c r="L12" t="n">
         <v>152.7301646665999</v>
@@ -35506,10 +35506,10 @@
         <v>173.3594440121573</v>
       </c>
       <c r="P12" t="n">
-        <v>126.4428101268713</v>
+        <v>311.6588320349639</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.25148257554973</v>
+        <v>51.74844006457836</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>36.20372309459953</v>
       </c>
       <c r="K13" t="n">
-        <v>25.05684201211392</v>
+        <v>191.5771175097719</v>
       </c>
       <c r="L13" t="n">
         <v>305.1597851150341</v>
       </c>
       <c r="M13" t="n">
-        <v>311.658832034964</v>
+        <v>56.64888783056161</v>
       </c>
       <c r="N13" t="n">
-        <v>311.658832034964</v>
+        <v>60.4608855498613</v>
       </c>
       <c r="O13" t="n">
-        <v>256.6507994104769</v>
+        <v>267.5684476925109</v>
       </c>
       <c r="P13" t="n">
-        <v>23.85796149048637</v>
+        <v>234.4682002603905</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>81.95600504530917</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>219.9024504091195</v>
+        <v>23.20043527808177</v>
       </c>
       <c r="K15" t="n">
         <v>90.96701301049795</v>
@@ -35740,13 +35740,13 @@
         <v>205.4517340872151</v>
       </c>
       <c r="O15" t="n">
-        <v>195.8624865231291</v>
+        <v>173.3594440121573</v>
       </c>
       <c r="P15" t="n">
         <v>126.4428101268713</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.74844006457836</v>
+        <v>270.9534977065883</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,19 +35813,19 @@
         <v>305.1597851150341</v>
       </c>
       <c r="M16" t="n">
-        <v>237.9740376410775</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="N16" t="n">
-        <v>60.4608855498613</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="O16" t="n">
-        <v>296.8535366518998</v>
+        <v>53.92680081821998</v>
       </c>
       <c r="P16" t="n">
         <v>23.85796149048637</v>
       </c>
       <c r="Q16" t="n">
-        <v>81.95600504530917</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>59.69777752060125</v>
+        <v>59.69777752060128</v>
       </c>
       <c r="K17" t="n">
-        <v>122.7846619963309</v>
+        <v>122.784661996331</v>
       </c>
       <c r="L17" t="n">
-        <v>176.5536600716445</v>
+        <v>176.5536600716446</v>
       </c>
       <c r="M17" t="n">
         <v>217.2430300666065</v>
       </c>
       <c r="N17" t="n">
-        <v>223.7875175411961</v>
+        <v>223.7875175411962</v>
       </c>
       <c r="O17" t="n">
-        <v>202.560732390866</v>
+        <v>202.5607323908661</v>
       </c>
       <c r="P17" t="n">
-        <v>150.2287264062997</v>
+        <v>150.2287264062998</v>
       </c>
       <c r="Q17" t="n">
-        <v>81.18694610449447</v>
+        <v>81.18694610449452</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23.20043527808177</v>
+        <v>23.2004352780818</v>
       </c>
       <c r="K18" t="n">
-        <v>310.1720706525076</v>
+        <v>90.96701301049801</v>
       </c>
       <c r="L18" t="n">
-        <v>152.7301646665999</v>
+        <v>152.7301646666</v>
       </c>
       <c r="M18" t="n">
-        <v>190.9379532100284</v>
+        <v>190.9379532100285</v>
       </c>
       <c r="N18" t="n">
-        <v>205.4517340872151</v>
+        <v>205.4517340872152</v>
       </c>
       <c r="O18" t="n">
         <v>173.3594440121573</v>
@@ -35983,10 +35983,10 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.74844006457836</v>
+        <v>225.2052016849084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.7482960216791</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>36.20372309459953</v>
+        <v>36.20372309459955</v>
       </c>
       <c r="K19" t="n">
         <v>191.5771175097719</v>
@@ -36050,19 +36050,19 @@
         <v>305.1597851150341</v>
       </c>
       <c r="M19" t="n">
-        <v>56.64888783056161</v>
+        <v>311.6588320349641</v>
       </c>
       <c r="N19" t="n">
-        <v>60.4608855498613</v>
+        <v>60.46088554986133</v>
       </c>
       <c r="O19" t="n">
-        <v>267.5684476925116</v>
+        <v>42.50853712112324</v>
       </c>
       <c r="P19" t="n">
-        <v>234.4682002603905</v>
+        <v>204.5181666273763</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.95600504530917</v>
+        <v>81.95600504530918</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>23.2004352780818</v>
+        <v>57.18947101199839</v>
       </c>
       <c r="K21" t="n">
         <v>90.96701301049801</v>
       </c>
       <c r="L21" t="n">
-        <v>233.6358342858026</v>
+        <v>152.7301646666</v>
       </c>
       <c r="M21" t="n">
         <v>190.9379532100285</v>
@@ -36214,10 +36214,10 @@
         <v>205.4517340872152</v>
       </c>
       <c r="O21" t="n">
+        <v>173.3594440121573</v>
+      </c>
+      <c r="P21" t="n">
         <v>311.6588320349642</v>
-      </c>
-      <c r="P21" t="n">
-        <v>126.4428101268713</v>
       </c>
       <c r="Q21" t="n">
         <v>51.74844006457839</v>
@@ -36281,16 +36281,16 @@
         <v>36.20372309459955</v>
       </c>
       <c r="K22" t="n">
-        <v>164.5546164701059</v>
+        <v>191.5771175097719</v>
       </c>
       <c r="L22" t="n">
-        <v>51.69925071020921</v>
+        <v>305.1597851150341</v>
       </c>
       <c r="M22" t="n">
-        <v>56.64888783056163</v>
+        <v>109.3198039164827</v>
       </c>
       <c r="N22" t="n">
-        <v>311.6588320349642</v>
+        <v>60.46088554986133</v>
       </c>
       <c r="O22" t="n">
         <v>296.8535366518999</v>
@@ -36299,7 +36299,7 @@
         <v>234.4682002603905</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.95600504530918</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>23.2004352780818</v>
+        <v>219.9024504091196</v>
       </c>
       <c r="K24" t="n">
-        <v>90.96701301049801</v>
+        <v>113.4700555214696</v>
       </c>
       <c r="L24" t="n">
         <v>152.7301646666</v>
@@ -36454,13 +36454,13 @@
         <v>173.3594440121573</v>
       </c>
       <c r="P24" t="n">
-        <v>299.8995717472016</v>
+        <v>126.4428101268713</v>
       </c>
       <c r="Q24" t="n">
         <v>51.74844006457839</v>
       </c>
       <c r="R24" t="n">
-        <v>45.7482960216791</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,22 +36521,22 @@
         <v>191.5771175097719</v>
       </c>
       <c r="L25" t="n">
-        <v>305.1597851150341</v>
+        <v>51.69925071020921</v>
       </c>
       <c r="M25" t="n">
-        <v>56.64888783056163</v>
+        <v>311.6588320349642</v>
       </c>
       <c r="N25" t="n">
         <v>311.6588320349642</v>
       </c>
       <c r="O25" t="n">
-        <v>226.9807399773132</v>
+        <v>296.8535366518999</v>
       </c>
       <c r="P25" t="n">
-        <v>23.8579614904864</v>
+        <v>34.39176006163117</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.95600504530918</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>59.69777752060128</v>
+        <v>59.69777752060143</v>
       </c>
       <c r="K26" t="n">
         <v>122.784661996331</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>196.657196898412</v>
+        <v>23.2004352780818</v>
       </c>
       <c r="K27" t="n">
         <v>90.96701301049801</v>
@@ -36691,7 +36691,7 @@
         <v>173.3594440121573</v>
       </c>
       <c r="P27" t="n">
-        <v>126.4428101268713</v>
+        <v>299.8995717472016</v>
       </c>
       <c r="Q27" t="n">
         <v>51.74844006457839</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>25.05684201211395</v>
+        <v>191.5771175097719</v>
       </c>
       <c r="L28" t="n">
-        <v>51.69925071020921</v>
+        <v>98.43677237595352</v>
       </c>
       <c r="M28" t="n">
         <v>311.6588320349642</v>
@@ -36770,10 +36770,10 @@
         <v>296.8535366518999</v>
       </c>
       <c r="P28" t="n">
-        <v>234.4682002603905</v>
+        <v>23.8579614904864</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.647558393497929</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>23.2004352780818</v>
+        <v>219.9024504091196</v>
       </c>
       <c r="K30" t="n">
-        <v>90.96701301049801</v>
+        <v>113.4700555214696</v>
       </c>
       <c r="L30" t="n">
         <v>152.7301646666</v>
@@ -36931,7 +36931,7 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q30" t="n">
-        <v>270.9534977065879</v>
+        <v>51.74844006457839</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>36.20372309459955</v>
       </c>
       <c r="K31" t="n">
-        <v>25.05684201211395</v>
+        <v>191.5771175097719</v>
       </c>
       <c r="L31" t="n">
-        <v>54.34680910370729</v>
+        <v>305.1597851150341</v>
       </c>
       <c r="M31" t="n">
         <v>311.6588320349642</v>
@@ -37004,10 +37004,10 @@
         <v>311.6588320349642</v>
       </c>
       <c r="O31" t="n">
-        <v>296.8535366518999</v>
+        <v>53.92680081821975</v>
       </c>
       <c r="P31" t="n">
-        <v>234.4682002603905</v>
+        <v>23.8579614904864</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>152.7301646666</v>
       </c>
       <c r="M33" t="n">
-        <v>311.6588320349642</v>
+        <v>190.9379532100285</v>
       </c>
       <c r="N33" t="n">
         <v>205.4517340872152</v>
       </c>
       <c r="O33" t="n">
-        <v>226.0953268075519</v>
+        <v>173.3594440121573</v>
       </c>
       <c r="P33" t="n">
         <v>126.4428101268713</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.74844006457839</v>
+        <v>225.2052016849093</v>
       </c>
       <c r="R33" t="n">
         <v>45.7482960216791</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>36.20372309459955</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>25.05684201211395</v>
+        <v>191.5771175097719</v>
       </c>
       <c r="L34" t="n">
         <v>305.1597851150341</v>
       </c>
       <c r="M34" t="n">
-        <v>153.296366653633</v>
+        <v>311.6588320349643</v>
       </c>
       <c r="N34" t="n">
-        <v>311.6588320349642</v>
+        <v>60.46088554986133</v>
       </c>
       <c r="O34" t="n">
-        <v>296.8535366518999</v>
+        <v>130.7182316280183</v>
       </c>
       <c r="P34" t="n">
-        <v>23.8579614904864</v>
+        <v>234.4682002603905</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.95600504530918</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>23.2004352780818</v>
+        <v>219.9024504091196</v>
       </c>
       <c r="K36" t="n">
-        <v>90.96701301049801</v>
+        <v>113.4700555214696</v>
       </c>
       <c r="L36" t="n">
         <v>152.7301646666</v>
@@ -37405,10 +37405,10 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q36" t="n">
-        <v>225.2052016849088</v>
+        <v>51.74844006457839</v>
       </c>
       <c r="R36" t="n">
-        <v>45.7482960216791</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>36.20372309459955</v>
       </c>
       <c r="K37" t="n">
         <v>191.5771175097719</v>
       </c>
       <c r="L37" t="n">
-        <v>51.69925071020921</v>
+        <v>305.1597851150341</v>
       </c>
       <c r="M37" t="n">
-        <v>311.6588320349642</v>
+        <v>56.64888783056163</v>
       </c>
       <c r="N37" t="n">
-        <v>276.4403486553994</v>
+        <v>241.7860353603775</v>
       </c>
       <c r="O37" t="n">
         <v>296.8535366518999</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>25.05684201211395</v>
+        <v>191.5771175097719</v>
       </c>
       <c r="L40" t="n">
         <v>305.1597851150341</v>
       </c>
       <c r="M40" t="n">
-        <v>311.6588320349642</v>
+        <v>63.56752196577337</v>
       </c>
       <c r="N40" t="n">
-        <v>311.6588320349642</v>
+        <v>60.46088554986133</v>
       </c>
       <c r="O40" t="n">
-        <v>174.6947943651684</v>
+        <v>296.8535366518999</v>
       </c>
       <c r="P40" t="n">
-        <v>23.8579614904864</v>
+        <v>234.4682002603905</v>
       </c>
       <c r="Q40" t="n">
         <v>81.95600504530918</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>59.69777752060121</v>
+        <v>59.69777752060128</v>
       </c>
       <c r="K41" t="n">
         <v>122.784661996331</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>23.2004352780818</v>
+        <v>219.9024504091196</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4237746308282</v>
+        <v>90.96701301049801</v>
       </c>
       <c r="L42" t="n">
         <v>152.7301646666</v>
@@ -37879,10 +37879,10 @@
         <v>126.4428101268713</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.74844006457839</v>
+        <v>74.25148257554997</v>
       </c>
       <c r="R42" t="n">
-        <v>45.7482960216791</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>36.20372309459955</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>191.5771175097719</v>
       </c>
       <c r="L43" t="n">
-        <v>305.1597851150341</v>
+        <v>142.1715331368259</v>
       </c>
       <c r="M43" t="n">
         <v>311.6588320349641</v>
@@ -37955,7 +37955,7 @@
         <v>42.50853712112324</v>
       </c>
       <c r="P43" t="n">
-        <v>35.27622518758282</v>
+        <v>234.4682002603905</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>122.784661996331</v>
       </c>
       <c r="L44" t="n">
-        <v>176.5536600716446</v>
+        <v>176.5536600716445</v>
       </c>
       <c r="M44" t="n">
         <v>217.2430300666065</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>23.2004352780818</v>
+        <v>219.9024504091196</v>
       </c>
       <c r="K45" t="n">
         <v>90.96701301049801</v>
@@ -38107,10 +38107,10 @@
         <v>190.9379532100285</v>
       </c>
       <c r="N45" t="n">
-        <v>240.6091076847387</v>
+        <v>205.4517340872152</v>
       </c>
       <c r="O45" t="n">
-        <v>311.6588320349641</v>
+        <v>173.3594440121573</v>
       </c>
       <c r="P45" t="n">
         <v>126.4428101268713</v>
@@ -38119,7 +38119,7 @@
         <v>51.74844006457839</v>
       </c>
       <c r="R45" t="n">
-        <v>45.7482960216791</v>
+        <v>22.50304251097169</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.20372309459955</v>
       </c>
       <c r="K46" t="n">
         <v>25.05684201211395</v>
       </c>
       <c r="L46" t="n">
-        <v>264.9570478736114</v>
+        <v>51.69925071020921</v>
       </c>
       <c r="M46" t="n">
-        <v>311.6588320349641</v>
+        <v>278.1026673338625</v>
       </c>
       <c r="N46" t="n">
         <v>311.6588320349641</v>
@@ -38192,7 +38192,7 @@
         <v>296.8535366518999</v>
       </c>
       <c r="P46" t="n">
-        <v>23.8579614904864</v>
+        <v>234.4682002603905</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
